--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_14_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_14_15.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163378.5702535532</v>
+        <v>162472.1419155939</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12318956.43563076</v>
+        <v>12319086.47628876</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19595218.16626131</v>
+        <v>19595194.94638737</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4816585.913344052</v>
+        <v>4816580.478582592</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>69.11209925255302</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1415,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>29.63673178547967</v>
       </c>
       <c r="S11" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>98.74883103803279</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
     </row>
     <row r="12">
@@ -1455,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>54.13711731454487</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,25 +1494,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>36.5739230774922</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>98.74883103803275</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>8.037790645995651</v>
       </c>
       <c r="V12" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>112.1126601249237</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="X12" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>32.65832442698833</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,22 +1570,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.26856482072056</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>112.1126601249237</v>
+        <v>98.74883103803269</v>
       </c>
       <c r="T13" t="n">
-        <v>112.1126601249237</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="U13" t="n">
-        <v>51.82194179032392</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
         <v>98.74883103803275</v>
       </c>
-      <c r="V14" t="n">
-        <v>112.1126601249237</v>
-      </c>
       <c r="W14" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>112.1126601249237</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>62.17490796054055</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>36.5739230774922</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>98.74883103803275</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>112.1126601249237</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
     </row>
     <row r="16">
@@ -1771,22 +1771,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="F16" t="n">
-        <v>98.74883103803275</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="G16" t="n">
         <v>112.1126601249237</v>
       </c>
       <c r="H16" t="n">
-        <v>112.1126601249237</v>
+        <v>66.0905066110444</v>
       </c>
       <c r="I16" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>32.65832442698834</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1889,28 +1889,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>29.63673178547965</v>
       </c>
       <c r="S17" t="n">
-        <v>98.74883103803275</v>
+        <v>69.11209925255308</v>
       </c>
       <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="U17" t="n">
+      <c r="Y17" t="n">
         <v>112.1126601249237</v>
-      </c>
-      <c r="V17" t="n">
-        <v>112.1126601249237</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>98.74883103803275</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>36.57392307749218</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="T18" t="n">
+      <c r="W18" t="n">
         <v>112.1126601249237</v>
-      </c>
-      <c r="U18" t="n">
-        <v>112.1126601249237</v>
-      </c>
-      <c r="V18" t="n">
-        <v>62.1749079605406</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>98.74883103803275</v>
       </c>
       <c r="S19" t="n">
-        <v>98.74883103803275</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="W19" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,73 +2078,73 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>98.74883103803275</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>112.1126601249237</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>98.74883103803275</v>
-      </c>
-      <c r="T20" t="n">
-        <v>112.1126601249237</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>98.74883103803275</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2217,10 +2217,10 @@
         <v>112.1126601249237</v>
       </c>
       <c r="V21" t="n">
-        <v>98.74883103803278</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>51.82194179032392</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>32.65832442698833</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>84.48026621731221</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,76 +2315,76 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="H23" t="n">
+        <v>69.11209925255308</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>29.63673178547965</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>98.74883103803279</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="Y23" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>98.74883103803279</v>
+        <v>98.74883103803275</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2454,16 +2454,16 @@
         <v>112.1126601249237</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
       <c r="Y24" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2476,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="D25" t="n">
-        <v>98.74883103803279</v>
+        <v>98.74883103803275</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
+      <c r="Y25" t="n">
         <v>112.1126601249237</v>
-      </c>
-      <c r="V25" t="n">
-        <v>112.1126601249237</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>98.74883103803275</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,10 +2561,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>112.1126601249237</v>
@@ -2612,13 +2612,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>98.74883103803275</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,19 +2631,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="C27" t="n">
         <v>112.1126601249237</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>98.74883103803275</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2685,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>98.74883103803275</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2697,10 +2697,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>98.74883103803275</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="S28" t="n">
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="T28" t="n">
-        <v>98.74883103803279</v>
-      </c>
-      <c r="U28" t="n">
+      <c r="Y28" t="n">
         <v>112.1126601249237</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>98.74883103803275</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="U29" t="n">
         <v>112.1126601249237</v>
@@ -2855,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>98.74883103803278</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>98.74883103803275</v>
+      </c>
+      <c r="X30" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="V30" t="n">
+      <c r="Y30" t="n">
         <v>112.1126601249237</v>
-      </c>
-      <c r="W30" t="n">
-        <v>112.1126601249237</v>
-      </c>
-      <c r="X30" t="n">
-        <v>98.74883103803279</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,46 +2962,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>98.74883103803275</v>
       </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,13 +3038,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>112.1126601249237</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="H32" t="n">
-        <v>98.74883103803275</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>98.74883103803269</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="C33" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>98.74883103803266</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>36.57392307749219</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>62.17490796054056</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="V33" t="n">
-        <v>112.1126601249237</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="W33" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>98.74883103803275</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>112.1126601249237</v>
+        <v>98.74883103803269</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>112.1126601249237</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3278,61 +3278,61 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>69.11209925255308</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>29.63673178547965</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="H35" t="n">
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>98.74883103803275</v>
-      </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,67 +3342,67 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>112.1126601249237</v>
+      </c>
+      <c r="U36" t="n">
         <v>98.74883103803275</v>
       </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
+      <c r="V36" t="n">
         <v>112.1126601249237</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>112.1126601249237</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>98.74883103803275</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3466,25 +3466,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>14.26856482072056</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>112.1126601249237</v>
-      </c>
-      <c r="T37" t="n">
-        <v>112.1126601249237</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>112.1126601249237</v>
-      </c>
-      <c r="W37" t="n">
-        <v>84.48026621731221</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3509,13 +3509,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>112.1126601249237</v>
+        <v>98.74883103803275</v>
       </c>
       <c r="F38" t="n">
         <v>112.1126601249237</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>98.74883103803275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,61 +3582,61 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>36.57392307749219</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
       <c r="U39" t="n">
-        <v>98.74883103803275</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>112.1126601249237</v>
@@ -3645,7 +3645,7 @@
         <v>112.1126601249237</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>62.17490796054055</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3664,67 +3664,67 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="E40" t="n">
+      <c r="V40" t="n">
+        <v>98.74883103803275</v>
+      </c>
+      <c r="W40" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
+      <c r="X40" t="n">
         <v>112.1126601249237</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>14.26856482072056</v>
-      </c>
-      <c r="R40" t="n">
-        <v>84.48026621731221</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>112.1126601249236</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="D41" t="n">
-        <v>112.1126601249236</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>98.74883103803275</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>98.74883103803269</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>112.1126601249236</v>
+        <v>112.1126601249237</v>
       </c>
     </row>
     <row r="42">
@@ -3816,19 +3816,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>112.1126601249236</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="C42" t="n">
-        <v>112.1126601249236</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>98.74883103803275</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>62.17490796054051</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>36.57392307749219</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>112.1126601249236</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>84.48026621731221</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>112.1126601249236</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>112.1126601249236</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>14.26856482072056</v>
       </c>
       <c r="R43" t="n">
-        <v>112.1126601249236</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>84.48026621731215</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3983,19 +3983,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="G44" t="n">
-        <v>112.1126601249236</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>69.11209925255308</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,13 +4034,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>112.1126601249236</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>112.1126601249236</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>69.11209925255302</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4101,25 +4101,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>36.57392307749219</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>98.74883103803275</v>
       </c>
       <c r="U45" t="n">
-        <v>112.1126601249236</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="V45" t="n">
-        <v>112.1126601249236</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="W45" t="n">
-        <v>112.1126601249236</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="X45" t="n">
-        <v>62.17490796054051</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4141,13 +4141,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,19 +4186,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>98.74883103803269</v>
+        <v>98.74883103803275</v>
       </c>
       <c r="U46" t="n">
-        <v>112.1126601249236</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>112.1126601249236</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>112.1126601249236</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.969012809993897</v>
+        <v>192.0243253124956</v>
       </c>
       <c r="C11" t="n">
-        <v>8.969012809993897</v>
+        <v>192.0243253124956</v>
       </c>
       <c r="D11" t="n">
-        <v>8.969012809993897</v>
+        <v>192.0243253124956</v>
       </c>
       <c r="E11" t="n">
-        <v>8.969012809993897</v>
+        <v>192.0243253124956</v>
       </c>
       <c r="F11" t="n">
-        <v>8.969012809993897</v>
+        <v>78.77921407519898</v>
       </c>
       <c r="G11" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H11" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I11" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J11" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K11" t="n">
-        <v>32.11753523687537</v>
+        <v>32.11753523687543</v>
       </c>
       <c r="L11" t="n">
-        <v>97.73708609773391</v>
+        <v>97.73708609773405</v>
       </c>
       <c r="M11" t="n">
-        <v>202.4209174083928</v>
+        <v>202.4209174083929</v>
       </c>
       <c r="N11" t="n">
         <v>313.4124509320673</v>
       </c>
       <c r="O11" t="n">
-        <v>404.8833474416799</v>
+        <v>404.8833474416797</v>
       </c>
       <c r="P11" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996945</v>
       </c>
       <c r="Q11" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996945</v>
       </c>
       <c r="R11" t="n">
-        <v>448.4506404996948</v>
+        <v>418.5145477870888</v>
       </c>
       <c r="S11" t="n">
-        <v>335.2055292623982</v>
+        <v>418.5145477870888</v>
       </c>
       <c r="T11" t="n">
-        <v>221.9604180251015</v>
+        <v>418.5145477870888</v>
       </c>
       <c r="U11" t="n">
-        <v>108.7153067878048</v>
+        <v>418.5145477870888</v>
       </c>
       <c r="V11" t="n">
-        <v>8.969012809993897</v>
+        <v>418.5145477870888</v>
       </c>
       <c r="W11" t="n">
-        <v>8.969012809993897</v>
+        <v>418.5145477870888</v>
       </c>
       <c r="X11" t="n">
-        <v>8.969012809993897</v>
+        <v>418.5145477870888</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.969012809993897</v>
+        <v>305.2694365497922</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.969012809993897</v>
+        <v>290.1431921679658</v>
       </c>
       <c r="C12" t="n">
-        <v>8.969012809993897</v>
+        <v>290.1431921679658</v>
       </c>
       <c r="D12" t="n">
-        <v>8.969012809993897</v>
+        <v>290.1431921679658</v>
       </c>
       <c r="E12" t="n">
-        <v>8.969012809993897</v>
+        <v>176.8980809306692</v>
       </c>
       <c r="F12" t="n">
-        <v>8.969012809993897</v>
+        <v>63.65296969337255</v>
       </c>
       <c r="G12" t="n">
-        <v>8.969012809993897</v>
+        <v>63.65296969337255</v>
       </c>
       <c r="H12" t="n">
-        <v>8.969012809993897</v>
+        <v>63.65296969337255</v>
       </c>
       <c r="I12" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J12" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K12" t="n">
-        <v>36.22166818534551</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="L12" t="n">
-        <v>119.1887676792232</v>
+        <v>65.44790611672066</v>
       </c>
       <c r="M12" t="n">
-        <v>230.1803012028977</v>
+        <v>176.4394396403951</v>
       </c>
       <c r="N12" t="n">
-        <v>341.1718347265722</v>
+        <v>287.4309731640694</v>
       </c>
       <c r="O12" t="n">
-        <v>387.4830745953196</v>
+        <v>387.4830745953194</v>
       </c>
       <c r="P12" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996945</v>
       </c>
       <c r="Q12" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996945</v>
       </c>
       <c r="R12" t="n">
-        <v>448.4506404996948</v>
+        <v>411.507283855763</v>
       </c>
       <c r="S12" t="n">
-        <v>448.4506404996948</v>
+        <v>411.507283855763</v>
       </c>
       <c r="T12" t="n">
-        <v>348.704346521884</v>
+        <v>411.507283855763</v>
       </c>
       <c r="U12" t="n">
-        <v>348.704346521884</v>
+        <v>403.3883034052624</v>
       </c>
       <c r="V12" t="n">
-        <v>235.4592352845873</v>
+        <v>403.3883034052624</v>
       </c>
       <c r="W12" t="n">
-        <v>122.2141240472906</v>
+        <v>290.1431921679658</v>
       </c>
       <c r="X12" t="n">
-        <v>8.969012809993897</v>
+        <v>290.1431921679658</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.969012809993897</v>
+        <v>290.1431921679658</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.9572193019013</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="C13" t="n">
-        <v>41.9572193019013</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="D13" t="n">
-        <v>41.9572193019013</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="E13" t="n">
-        <v>41.9572193019013</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="F13" t="n">
-        <v>41.9572193019013</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="G13" t="n">
-        <v>41.9572193019013</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H13" t="n">
-        <v>41.9572193019013</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I13" t="n">
-        <v>41.9572193019013</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J13" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K13" t="n">
-        <v>15.36860208584622</v>
+        <v>85.6748668419385</v>
       </c>
       <c r="L13" t="n">
-        <v>126.3601356095207</v>
+        <v>196.6664003656129</v>
       </c>
       <c r="M13" t="n">
-        <v>126.3601356095207</v>
+        <v>196.6664003656129</v>
       </c>
       <c r="N13" t="n">
-        <v>237.3516691331951</v>
+        <v>307.6579338892873</v>
       </c>
       <c r="O13" t="n">
-        <v>348.3432026568696</v>
+        <v>348.3432026568693</v>
       </c>
       <c r="P13" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996945</v>
       </c>
       <c r="Q13" t="n">
-        <v>434.0379487615933</v>
+        <v>448.4506404996945</v>
       </c>
       <c r="R13" t="n">
-        <v>320.7928375242966</v>
+        <v>448.4506404996945</v>
       </c>
       <c r="S13" t="n">
-        <v>207.5477262869999</v>
+        <v>348.7043465218837</v>
       </c>
       <c r="T13" t="n">
-        <v>94.30261504970325</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="U13" t="n">
-        <v>41.9572193019013</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="V13" t="n">
-        <v>41.9572193019013</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="W13" t="n">
-        <v>41.9572193019013</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="X13" t="n">
-        <v>41.9572193019013</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.9572193019013</v>
+        <v>8.969012809993892</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="C14" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="D14" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="E14" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="F14" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="G14" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H14" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I14" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J14" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K14" t="n">
-        <v>32.11753523687549</v>
+        <v>32.11753523687548</v>
       </c>
       <c r="L14" t="n">
         <v>97.73708609773416</v>
@@ -5288,40 +5288,40 @@
         <v>202.4209174083931</v>
       </c>
       <c r="N14" t="n">
-        <v>313.4124509320675</v>
+        <v>313.4124509320674</v>
       </c>
       <c r="O14" t="n">
-        <v>404.8833474416799</v>
+        <v>404.8833474416797</v>
       </c>
       <c r="P14" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q14" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="R14" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="S14" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="T14" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="U14" t="n">
-        <v>348.704346521884</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="V14" t="n">
-        <v>235.4592352845873</v>
+        <v>348.7043465218837</v>
       </c>
       <c r="W14" t="n">
-        <v>122.2141240472906</v>
+        <v>348.7043465218837</v>
       </c>
       <c r="X14" t="n">
-        <v>8.969012809993897</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.969012809993897</v>
+        <v>122.2141240472905</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.969012809993897</v>
+        <v>71.77195014387324</v>
       </c>
       <c r="C15" t="n">
-        <v>8.969012809993897</v>
+        <v>71.77195014387324</v>
       </c>
       <c r="D15" t="n">
-        <v>8.969012809993897</v>
+        <v>71.77195014387324</v>
       </c>
       <c r="E15" t="n">
-        <v>8.969012809993897</v>
+        <v>71.77195014387324</v>
       </c>
       <c r="F15" t="n">
-        <v>8.969012809993897</v>
+        <v>71.77195014387324</v>
       </c>
       <c r="G15" t="n">
-        <v>8.969012809993897</v>
+        <v>71.77195014387324</v>
       </c>
       <c r="H15" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I15" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J15" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K15" t="n">
-        <v>36.22166818534554</v>
+        <v>36.22166818534551</v>
       </c>
       <c r="L15" t="n">
-        <v>119.1887676792233</v>
+        <v>119.1887676792232</v>
       </c>
       <c r="M15" t="n">
-        <v>230.1803012028978</v>
+        <v>230.1803012028976</v>
       </c>
       <c r="N15" t="n">
-        <v>287.4309731640697</v>
+        <v>287.4309731640694</v>
       </c>
       <c r="O15" t="n">
-        <v>387.4830745953196</v>
+        <v>387.4830745953194</v>
       </c>
       <c r="P15" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q15" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="R15" t="n">
-        <v>448.4506404996948</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="S15" t="n">
-        <v>448.4506404996948</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="T15" t="n">
-        <v>348.704346521884</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="U15" t="n">
-        <v>235.4592352845873</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="V15" t="n">
-        <v>122.2141240472906</v>
+        <v>298.2621726184665</v>
       </c>
       <c r="W15" t="n">
-        <v>8.969012809993897</v>
+        <v>185.0170613811699</v>
       </c>
       <c r="X15" t="n">
-        <v>8.969012809993897</v>
+        <v>185.0170613811699</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.969012809993897</v>
+        <v>71.77195014387324</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="C16" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="D16" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="E16" t="n">
-        <v>448.4506404996948</v>
+        <v>335.205529262398</v>
       </c>
       <c r="F16" t="n">
-        <v>348.704346521884</v>
+        <v>221.9604180251014</v>
       </c>
       <c r="G16" t="n">
-        <v>235.4592352845873</v>
+        <v>108.7153067878047</v>
       </c>
       <c r="H16" t="n">
-        <v>122.2141240472906</v>
+        <v>41.9572193019013</v>
       </c>
       <c r="I16" t="n">
-        <v>8.969012809993897</v>
+        <v>41.9572193019013</v>
       </c>
       <c r="J16" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K16" t="n">
-        <v>8.969012809993897</v>
+        <v>85.6748668419385</v>
       </c>
       <c r="L16" t="n">
-        <v>119.9605463336684</v>
+        <v>196.6664003656129</v>
       </c>
       <c r="M16" t="n">
-        <v>230.9520798573428</v>
+        <v>196.6664003656129</v>
       </c>
       <c r="N16" t="n">
-        <v>341.9436133810173</v>
+        <v>307.6579338892873</v>
       </c>
       <c r="O16" t="n">
-        <v>448.4506404996948</v>
+        <v>348.3432026568694</v>
       </c>
       <c r="P16" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q16" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="R16" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="S16" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="T16" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="U16" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="V16" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="W16" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="X16" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Y16" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5489,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.969012809993897</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="C17" t="n">
-        <v>8.969012809993897</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="D17" t="n">
-        <v>8.969012809993897</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="E17" t="n">
-        <v>8.969012809993897</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="F17" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="G17" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="H17" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="I17" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="J17" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="K17" t="n">
-        <v>32.11753523687553</v>
+        <v>32.11753523687571</v>
       </c>
       <c r="L17" t="n">
-        <v>97.73708609773418</v>
+        <v>97.73708609773416</v>
       </c>
       <c r="M17" t="n">
-        <v>202.4209174083931</v>
+        <v>202.420917408393</v>
       </c>
       <c r="N17" t="n">
-        <v>313.4124509320676</v>
+        <v>313.4124509320674</v>
       </c>
       <c r="O17" t="n">
-        <v>404.8833474416799</v>
+        <v>404.8833474416798</v>
       </c>
       <c r="P17" t="n">
         <v>448.4506404996948</v>
@@ -5537,28 +5537,28 @@
         <v>448.4506404996948</v>
       </c>
       <c r="R17" t="n">
-        <v>448.4506404996948</v>
+        <v>418.514547787089</v>
       </c>
       <c r="S17" t="n">
-        <v>348.704346521884</v>
+        <v>348.7043465218839</v>
       </c>
       <c r="T17" t="n">
-        <v>235.4592352845873</v>
+        <v>348.7043465218839</v>
       </c>
       <c r="U17" t="n">
+        <v>348.7043465218839</v>
+      </c>
+      <c r="V17" t="n">
+        <v>348.7043465218839</v>
+      </c>
+      <c r="W17" t="n">
+        <v>348.7043465218839</v>
+      </c>
+      <c r="X17" t="n">
+        <v>235.4592352845872</v>
+      </c>
+      <c r="Y17" t="n">
         <v>122.2141240472906</v>
-      </c>
-      <c r="V17" t="n">
-        <v>8.969012809993897</v>
-      </c>
-      <c r="W17" t="n">
-        <v>8.969012809993897</v>
-      </c>
-      <c r="X17" t="n">
-        <v>8.969012809993897</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>8.969012809993897</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8.969012809993897</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="C18" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="D18" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="E18" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="F18" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="G18" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="H18" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="I18" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="J18" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="K18" t="n">
-        <v>8.969012809993897</v>
+        <v>36.22166818534551</v>
       </c>
       <c r="L18" t="n">
-        <v>91.93611230387167</v>
+        <v>119.1887676792232</v>
       </c>
       <c r="M18" t="n">
-        <v>202.9276458275461</v>
+        <v>230.1803012028977</v>
       </c>
       <c r="N18" t="n">
-        <v>313.9191793512206</v>
+        <v>287.4309731640696</v>
       </c>
       <c r="O18" t="n">
-        <v>413.9712807824706</v>
+        <v>387.4830745953196</v>
       </c>
       <c r="P18" t="n">
         <v>448.4506404996948</v>
@@ -5616,28 +5616,28 @@
         <v>448.4506404996948</v>
       </c>
       <c r="R18" t="n">
-        <v>411.5072838557633</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="S18" t="n">
-        <v>298.2621726184666</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="T18" t="n">
-        <v>185.01706138117</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="U18" t="n">
-        <v>71.7719501438733</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="V18" t="n">
-        <v>8.969012809993897</v>
+        <v>335.2055292623981</v>
       </c>
       <c r="W18" t="n">
-        <v>8.969012809993897</v>
+        <v>221.9604180251014</v>
       </c>
       <c r="X18" t="n">
-        <v>8.969012809993897</v>
+        <v>221.9604180251014</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.969012809993897</v>
+        <v>221.9604180251014</v>
       </c>
     </row>
     <row r="19">
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="C19" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="D19" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="E19" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="F19" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="G19" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="H19" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="I19" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="J19" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="K19" t="n">
-        <v>85.67486684193854</v>
+        <v>85.67486684193852</v>
       </c>
       <c r="L19" t="n">
+        <v>85.67486684193852</v>
+      </c>
+      <c r="M19" t="n">
         <v>196.666400365613</v>
       </c>
-      <c r="M19" t="n">
-        <v>307.6579338892875</v>
-      </c>
       <c r="N19" t="n">
-        <v>418.6494674129619</v>
+        <v>237.3516691331951</v>
       </c>
       <c r="O19" t="n">
-        <v>418.6494674129619</v>
+        <v>348.3432026568696</v>
       </c>
       <c r="P19" t="n">
         <v>448.4506404996948</v>
@@ -5695,28 +5695,28 @@
         <v>448.4506404996948</v>
       </c>
       <c r="R19" t="n">
-        <v>448.4506404996948</v>
+        <v>348.7043465218839</v>
       </c>
       <c r="S19" t="n">
-        <v>348.704346521884</v>
+        <v>235.4592352845872</v>
       </c>
       <c r="T19" t="n">
-        <v>348.704346521884</v>
+        <v>235.4592352845872</v>
       </c>
       <c r="U19" t="n">
-        <v>348.704346521884</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="V19" t="n">
-        <v>348.704346521884</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="W19" t="n">
-        <v>235.4592352845873</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="X19" t="n">
-        <v>122.2141240472906</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993895</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>122.2141240472906</v>
+        <v>335.205529262398</v>
       </c>
       <c r="C20" t="n">
-        <v>122.2141240472906</v>
+        <v>221.9604180251014</v>
       </c>
       <c r="D20" t="n">
-        <v>122.2141240472906</v>
+        <v>108.7153067878047</v>
       </c>
       <c r="E20" t="n">
-        <v>122.2141240472906</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="F20" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="G20" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H20" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I20" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J20" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K20" t="n">
-        <v>32.11753523687545</v>
+        <v>32.11753523687543</v>
       </c>
       <c r="L20" t="n">
-        <v>97.73708609773399</v>
+        <v>97.73708609773396</v>
       </c>
       <c r="M20" t="n">
         <v>202.4209174083929</v>
       </c>
       <c r="N20" t="n">
-        <v>313.4124509320676</v>
+        <v>313.4124509320673</v>
       </c>
       <c r="O20" t="n">
-        <v>404.8833474416799</v>
+        <v>404.8833474416796</v>
       </c>
       <c r="P20" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q20" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="R20" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="S20" t="n">
-        <v>348.704346521884</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="T20" t="n">
-        <v>235.4592352845873</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="U20" t="n">
-        <v>235.4592352845873</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="V20" t="n">
-        <v>235.4592352845873</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="W20" t="n">
-        <v>235.4592352845873</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="X20" t="n">
-        <v>235.4592352845873</v>
+        <v>335.205529262398</v>
       </c>
       <c r="Y20" t="n">
-        <v>235.4592352845873</v>
+        <v>335.205529262398</v>
       </c>
     </row>
     <row r="21">
@@ -5805,31 +5805,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>235.4592352845873</v>
+        <v>108.7153067878047</v>
       </c>
       <c r="C21" t="n">
-        <v>122.2141240472906</v>
+        <v>108.7153067878047</v>
       </c>
       <c r="D21" t="n">
-        <v>8.969012809993897</v>
+        <v>108.7153067878047</v>
       </c>
       <c r="E21" t="n">
-        <v>8.969012809993897</v>
+        <v>108.7153067878047</v>
       </c>
       <c r="F21" t="n">
-        <v>8.969012809993897</v>
+        <v>108.7153067878047</v>
       </c>
       <c r="G21" t="n">
-        <v>8.969012809993897</v>
+        <v>108.7153067878047</v>
       </c>
       <c r="H21" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I21" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J21" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K21" t="n">
         <v>36.22166818534551</v>
@@ -5841,40 +5841,40 @@
         <v>230.1803012028977</v>
       </c>
       <c r="N21" t="n">
-        <v>341.1718347265722</v>
+        <v>287.4309731640694</v>
       </c>
       <c r="O21" t="n">
-        <v>441.2239361578222</v>
+        <v>387.4830745953194</v>
       </c>
       <c r="P21" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q21" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="R21" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="S21" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="T21" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="U21" t="n">
-        <v>335.2055292623982</v>
+        <v>335.205529262398</v>
       </c>
       <c r="V21" t="n">
-        <v>235.4592352845873</v>
+        <v>221.9604180251014</v>
       </c>
       <c r="W21" t="n">
-        <v>235.4592352845873</v>
+        <v>108.7153067878047</v>
       </c>
       <c r="X21" t="n">
-        <v>235.4592352845873</v>
+        <v>108.7153067878047</v>
       </c>
       <c r="Y21" t="n">
-        <v>235.4592352845873</v>
+        <v>108.7153067878047</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>434.0379487615933</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="C22" t="n">
-        <v>434.0379487615933</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="D22" t="n">
-        <v>434.0379487615933</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="E22" t="n">
-        <v>434.0379487615933</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="F22" t="n">
-        <v>381.6925530137913</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="G22" t="n">
-        <v>268.4474417764947</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H22" t="n">
-        <v>155.202330539198</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I22" t="n">
-        <v>41.9572193019013</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J22" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K22" t="n">
-        <v>8.969012809993897</v>
+        <v>85.67486684193852</v>
       </c>
       <c r="L22" t="n">
-        <v>15.36860208584622</v>
+        <v>196.6664003656129</v>
       </c>
       <c r="M22" t="n">
-        <v>126.3601356095207</v>
+        <v>226.4675734523458</v>
       </c>
       <c r="N22" t="n">
-        <v>237.3516691331951</v>
+        <v>337.4591069760202</v>
       </c>
       <c r="O22" t="n">
-        <v>348.3432026568696</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="P22" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q22" t="n">
-        <v>434.0379487615933</v>
+        <v>434.037948761593</v>
       </c>
       <c r="R22" t="n">
-        <v>434.0379487615933</v>
+        <v>434.037948761593</v>
       </c>
       <c r="S22" t="n">
-        <v>434.0379487615933</v>
+        <v>348.7043465218837</v>
       </c>
       <c r="T22" t="n">
-        <v>434.0379487615933</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="U22" t="n">
-        <v>434.0379487615933</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="V22" t="n">
-        <v>434.0379487615933</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="W22" t="n">
-        <v>434.0379487615933</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="X22" t="n">
-        <v>434.0379487615933</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="Y22" t="n">
-        <v>434.0379487615933</v>
+        <v>8.969012809993892</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>221.9604180251015</v>
+        <v>192.0243253124956</v>
       </c>
       <c r="C23" t="n">
-        <v>221.9604180251015</v>
+        <v>192.0243253124956</v>
       </c>
       <c r="D23" t="n">
-        <v>108.7153067878048</v>
+        <v>192.0243253124956</v>
       </c>
       <c r="E23" t="n">
-        <v>108.7153067878048</v>
+        <v>192.0243253124956</v>
       </c>
       <c r="F23" t="n">
-        <v>108.7153067878048</v>
+        <v>192.0243253124956</v>
       </c>
       <c r="G23" t="n">
-        <v>108.7153067878048</v>
+        <v>78.77921407519902</v>
       </c>
       <c r="H23" t="n">
-        <v>108.7153067878048</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I23" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J23" t="n">
-        <v>8.969012809994172</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K23" t="n">
-        <v>32.11753523687575</v>
+        <v>32.11753523687545</v>
       </c>
       <c r="L23" t="n">
-        <v>97.73708609773441</v>
+        <v>97.73708609773408</v>
       </c>
       <c r="M23" t="n">
-        <v>202.4209174083933</v>
+        <v>202.420917408393</v>
       </c>
       <c r="N23" t="n">
-        <v>313.4124509320677</v>
+        <v>313.4124509320674</v>
       </c>
       <c r="O23" t="n">
-        <v>404.8833474416799</v>
+        <v>404.8833474416797</v>
       </c>
       <c r="P23" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q23" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="R23" t="n">
-        <v>448.4506404996948</v>
+        <v>418.5145477870889</v>
       </c>
       <c r="S23" t="n">
-        <v>448.4506404996948</v>
+        <v>418.5145477870889</v>
       </c>
       <c r="T23" t="n">
-        <v>448.4506404996948</v>
+        <v>418.5145477870889</v>
       </c>
       <c r="U23" t="n">
-        <v>448.4506404996948</v>
+        <v>418.5145477870889</v>
       </c>
       <c r="V23" t="n">
-        <v>448.4506404996948</v>
+        <v>418.5145477870889</v>
       </c>
       <c r="W23" t="n">
-        <v>448.4506404996948</v>
+        <v>305.2694365497923</v>
       </c>
       <c r="X23" t="n">
-        <v>448.4506404996948</v>
+        <v>192.0243253124956</v>
       </c>
       <c r="Y23" t="n">
-        <v>335.2055292623982</v>
+        <v>192.0243253124956</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>108.7153067878048</v>
+        <v>108.7153067878047</v>
       </c>
       <c r="C24" t="n">
-        <v>108.7153067878048</v>
+        <v>108.7153067878047</v>
       </c>
       <c r="D24" t="n">
-        <v>108.7153067878048</v>
+        <v>108.7153067878047</v>
       </c>
       <c r="E24" t="n">
-        <v>108.7153067878048</v>
+        <v>108.7153067878047</v>
       </c>
       <c r="F24" t="n">
-        <v>108.7153067878048</v>
+        <v>108.7153067878047</v>
       </c>
       <c r="G24" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H24" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I24" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J24" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K24" t="n">
-        <v>36.22166818534551</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="L24" t="n">
-        <v>119.1887676792232</v>
+        <v>91.93611230387162</v>
       </c>
       <c r="M24" t="n">
-        <v>230.1803012028977</v>
+        <v>202.927645827546</v>
       </c>
       <c r="N24" t="n">
-        <v>341.1718347265722</v>
+        <v>313.9191793512205</v>
       </c>
       <c r="O24" t="n">
-        <v>441.2239361578222</v>
+        <v>413.9712807824704</v>
       </c>
       <c r="P24" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q24" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="R24" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="S24" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="T24" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="U24" t="n">
-        <v>335.2055292623982</v>
+        <v>335.205529262398</v>
       </c>
       <c r="V24" t="n">
-        <v>335.2055292623982</v>
+        <v>221.9604180251014</v>
       </c>
       <c r="W24" t="n">
-        <v>221.9604180251015</v>
+        <v>221.9604180251014</v>
       </c>
       <c r="X24" t="n">
-        <v>221.9604180251015</v>
+        <v>108.7153067878047</v>
       </c>
       <c r="Y24" t="n">
-        <v>108.7153067878048</v>
+        <v>108.7153067878047</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>108.7153067878048</v>
+        <v>221.9604180251014</v>
       </c>
       <c r="C25" t="n">
-        <v>108.7153067878048</v>
+        <v>108.7153067878047</v>
       </c>
       <c r="D25" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="E25" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="F25" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="G25" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H25" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I25" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J25" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K25" t="n">
-        <v>8.969012809993897</v>
+        <v>85.67486684193852</v>
       </c>
       <c r="L25" t="n">
-        <v>119.9605463336684</v>
+        <v>196.6664003656129</v>
       </c>
       <c r="M25" t="n">
-        <v>230.9520798573428</v>
+        <v>237.351669133195</v>
       </c>
       <c r="N25" t="n">
-        <v>341.9436133810173</v>
+        <v>348.3432026568694</v>
       </c>
       <c r="O25" t="n">
-        <v>448.4506404996948</v>
+        <v>348.3432026568694</v>
       </c>
       <c r="P25" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q25" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="R25" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="S25" t="n">
-        <v>335.2055292623982</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="T25" t="n">
-        <v>335.2055292623982</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="U25" t="n">
-        <v>221.9604180251015</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="V25" t="n">
-        <v>108.7153067878048</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="W25" t="n">
-        <v>108.7153067878048</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="X25" t="n">
-        <v>108.7153067878048</v>
+        <v>335.205529262398</v>
       </c>
       <c r="Y25" t="n">
-        <v>108.7153067878048</v>
+        <v>221.9604180251014</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>348.704346521884</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="C26" t="n">
-        <v>348.704346521884</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="D26" t="n">
-        <v>348.704346521884</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="E26" t="n">
-        <v>235.4592352845873</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="F26" t="n">
-        <v>122.2141240472906</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="G26" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H26" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I26" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J26" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K26" t="n">
-        <v>32.11753523687548</v>
+        <v>32.11753523687543</v>
       </c>
       <c r="L26" t="n">
-        <v>97.73708609773414</v>
+        <v>97.73708609773405</v>
       </c>
       <c r="M26" t="n">
-        <v>202.4209174083931</v>
+        <v>202.420917408393</v>
       </c>
       <c r="N26" t="n">
-        <v>313.4124509320675</v>
+        <v>313.4124509320674</v>
       </c>
       <c r="O26" t="n">
         <v>404.8833474416797</v>
@@ -6245,31 +6245,31 @@
         <v>448.4506404996946</v>
       </c>
       <c r="Q26" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="R26" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="S26" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="T26" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="U26" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="V26" t="n">
-        <v>448.4506404996948</v>
+        <v>348.7043465218837</v>
       </c>
       <c r="W26" t="n">
-        <v>448.4506404996948</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="X26" t="n">
-        <v>448.4506404996948</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="Y26" t="n">
-        <v>448.4506404996948</v>
+        <v>122.2141240472905</v>
       </c>
     </row>
     <row r="27">
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>122.2141240472906</v>
+        <v>335.205529262398</v>
       </c>
       <c r="C27" t="n">
-        <v>8.969012809993897</v>
+        <v>221.9604180251014</v>
       </c>
       <c r="D27" t="n">
-        <v>8.969012809993897</v>
+        <v>108.7153067878047</v>
       </c>
       <c r="E27" t="n">
-        <v>8.969012809993897</v>
+        <v>108.7153067878047</v>
       </c>
       <c r="F27" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="G27" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H27" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I27" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J27" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K27" t="n">
         <v>36.22166818534551</v>
@@ -6315,40 +6315,40 @@
         <v>230.1803012028977</v>
       </c>
       <c r="N27" t="n">
-        <v>341.1718347265722</v>
+        <v>341.1718347265721</v>
       </c>
       <c r="O27" t="n">
-        <v>387.4830745953196</v>
+        <v>387.4830745953194</v>
       </c>
       <c r="P27" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q27" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="R27" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="S27" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="T27" t="n">
-        <v>348.704346521884</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="U27" t="n">
-        <v>348.704346521884</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="V27" t="n">
-        <v>348.704346521884</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="W27" t="n">
-        <v>348.704346521884</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="X27" t="n">
-        <v>235.4592352845873</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Y27" t="n">
-        <v>122.2141240472906</v>
+        <v>448.4506404996946</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="C28" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="D28" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="E28" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="F28" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="G28" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H28" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I28" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J28" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K28" t="n">
-        <v>8.969012809993897</v>
+        <v>85.67486684193852</v>
       </c>
       <c r="L28" t="n">
-        <v>119.9605463336684</v>
+        <v>196.6664003656129</v>
       </c>
       <c r="M28" t="n">
-        <v>230.9520798573428</v>
+        <v>307.6579338892873</v>
       </c>
       <c r="N28" t="n">
-        <v>237.3516691331951</v>
+        <v>348.3432026568694</v>
       </c>
       <c r="O28" t="n">
-        <v>348.3432026568696</v>
+        <v>348.3432026568694</v>
       </c>
       <c r="P28" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q28" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="R28" t="n">
-        <v>335.2055292623982</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="S28" t="n">
-        <v>221.9604180251015</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="T28" t="n">
-        <v>122.2141240472906</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="U28" t="n">
-        <v>8.969012809993897</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="V28" t="n">
-        <v>8.969012809993897</v>
+        <v>335.205529262398</v>
       </c>
       <c r="W28" t="n">
-        <v>8.969012809993897</v>
+        <v>335.205529262398</v>
       </c>
       <c r="X28" t="n">
-        <v>8.969012809993897</v>
+        <v>221.9604180251014</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.969012809993897</v>
+        <v>108.7153067878047</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="C29" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="D29" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="E29" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="F29" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="G29" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H29" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I29" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J29" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K29" t="n">
-        <v>32.11753523687548</v>
+        <v>32.11753523687543</v>
       </c>
       <c r="L29" t="n">
-        <v>97.73708609773414</v>
+        <v>97.73708609773405</v>
       </c>
       <c r="M29" t="n">
-        <v>202.4209174083933</v>
+        <v>202.420917408393</v>
       </c>
       <c r="N29" t="n">
-        <v>313.4124509320677</v>
+        <v>313.4124509320674</v>
       </c>
       <c r="O29" t="n">
-        <v>404.8833474416799</v>
+        <v>404.8833474416797</v>
       </c>
       <c r="P29" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q29" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="R29" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="S29" t="n">
-        <v>448.4506404996948</v>
+        <v>348.7043465218837</v>
       </c>
       <c r="T29" t="n">
-        <v>448.4506404996948</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="U29" t="n">
-        <v>335.2055292623982</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="V29" t="n">
-        <v>335.2055292623982</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="W29" t="n">
-        <v>335.2055292623982</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="X29" t="n">
-        <v>235.4592352845873</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="Y29" t="n">
-        <v>122.2141240472906</v>
+        <v>122.2141240472905</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="C30" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="D30" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="E30" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="F30" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="G30" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H30" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I30" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J30" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K30" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="L30" t="n">
-        <v>91.93611230387164</v>
+        <v>65.44790611672062</v>
       </c>
       <c r="M30" t="n">
-        <v>176.4394396403952</v>
+        <v>176.439439640395</v>
       </c>
       <c r="N30" t="n">
-        <v>287.4309731640697</v>
+        <v>287.4309731640694</v>
       </c>
       <c r="O30" t="n">
-        <v>387.4830745953196</v>
+        <v>387.4830745953194</v>
       </c>
       <c r="P30" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q30" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="R30" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="S30" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="T30" t="n">
-        <v>448.4506404996948</v>
+        <v>335.205529262398</v>
       </c>
       <c r="U30" t="n">
-        <v>335.2055292623982</v>
+        <v>335.205529262398</v>
       </c>
       <c r="V30" t="n">
-        <v>221.9604180251015</v>
+        <v>335.205529262398</v>
       </c>
       <c r="W30" t="n">
-        <v>108.7153067878048</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="X30" t="n">
-        <v>8.969012809993897</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>122.2141240472906</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="C31" t="n">
-        <v>122.2141240472906</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="D31" t="n">
-        <v>122.2141240472906</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="E31" t="n">
-        <v>122.2141240472906</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="F31" t="n">
-        <v>122.2141240472906</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="G31" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H31" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I31" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J31" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K31" t="n">
-        <v>85.67486684193852</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="L31" t="n">
-        <v>196.666400365613</v>
+        <v>119.9605463336683</v>
       </c>
       <c r="M31" t="n">
-        <v>307.6579338892874</v>
+        <v>230.9520798573427</v>
       </c>
       <c r="N31" t="n">
-        <v>418.6494674129619</v>
+        <v>337.4591069760202</v>
       </c>
       <c r="O31" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="P31" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q31" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="R31" t="n">
-        <v>348.704346521884</v>
+        <v>335.205529262398</v>
       </c>
       <c r="S31" t="n">
-        <v>348.704346521884</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="T31" t="n">
-        <v>348.704346521884</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="U31" t="n">
-        <v>348.704346521884</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="V31" t="n">
-        <v>348.704346521884</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="W31" t="n">
-        <v>235.4592352845873</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="X31" t="n">
-        <v>235.4592352845873</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="Y31" t="n">
-        <v>122.2141240472906</v>
+        <v>122.2141240472905</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>448.4506404996946</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="C32" t="n">
-        <v>335.205529262398</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="D32" t="n">
-        <v>335.205529262398</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="E32" t="n">
-        <v>335.205529262398</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="F32" t="n">
-        <v>221.9604180251014</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="G32" t="n">
-        <v>108.7153067878047</v>
+        <v>8.96901280999389</v>
       </c>
       <c r="H32" t="n">
-        <v>8.969012809993892</v>
+        <v>8.96901280999389</v>
       </c>
       <c r="I32" t="n">
-        <v>8.969012809993892</v>
+        <v>8.96901280999389</v>
       </c>
       <c r="J32" t="n">
-        <v>8.969012809993892</v>
+        <v>8.96901280999389</v>
       </c>
       <c r="K32" t="n">
-        <v>32.11753523687543</v>
+        <v>32.11753523687548</v>
       </c>
       <c r="L32" t="n">
-        <v>97.73708609773405</v>
+        <v>97.73708609773411</v>
       </c>
       <c r="M32" t="n">
-        <v>202.420917408393</v>
+        <v>202.4209174083929</v>
       </c>
       <c r="N32" t="n">
-        <v>313.4124509320674</v>
+        <v>313.4124509320673</v>
       </c>
       <c r="O32" t="n">
-        <v>404.8833474416797</v>
+        <v>404.8833474416796</v>
       </c>
       <c r="P32" t="n">
-        <v>448.4506404996946</v>
+        <v>448.4506404996945</v>
       </c>
       <c r="Q32" t="n">
-        <v>448.4506404996946</v>
+        <v>448.4506404996945</v>
       </c>
       <c r="R32" t="n">
-        <v>448.4506404996946</v>
+        <v>448.4506404996945</v>
       </c>
       <c r="S32" t="n">
-        <v>448.4506404996946</v>
+        <v>348.7043465218837</v>
       </c>
       <c r="T32" t="n">
-        <v>448.4506404996946</v>
+        <v>348.7043465218837</v>
       </c>
       <c r="U32" t="n">
-        <v>448.4506404996946</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="V32" t="n">
-        <v>448.4506404996946</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="W32" t="n">
-        <v>448.4506404996946</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="X32" t="n">
-        <v>448.4506404996946</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="Y32" t="n">
-        <v>448.4506404996946</v>
+        <v>122.2141240472905</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>122.2141240472905</v>
+        <v>108.7153067878047</v>
       </c>
       <c r="C33" t="n">
-        <v>8.969012809993892</v>
+        <v>108.7153067878047</v>
       </c>
       <c r="D33" t="n">
-        <v>8.969012809993892</v>
+        <v>108.7153067878047</v>
       </c>
       <c r="E33" t="n">
-        <v>8.969012809993892</v>
+        <v>108.7153067878047</v>
       </c>
       <c r="F33" t="n">
-        <v>8.969012809993892</v>
+        <v>108.7153067878047</v>
       </c>
       <c r="G33" t="n">
-        <v>8.969012809993892</v>
+        <v>108.7153067878047</v>
       </c>
       <c r="H33" t="n">
-        <v>8.969012809993892</v>
+        <v>8.96901280999389</v>
       </c>
       <c r="I33" t="n">
-        <v>8.969012809993892</v>
+        <v>8.96901280999389</v>
       </c>
       <c r="J33" t="n">
-        <v>8.969012809993892</v>
+        <v>8.96901280999389</v>
       </c>
       <c r="K33" t="n">
-        <v>36.22166818534551</v>
+        <v>8.96901280999389</v>
       </c>
       <c r="L33" t="n">
-        <v>119.1887676792232</v>
+        <v>91.93611230387162</v>
       </c>
       <c r="M33" t="n">
-        <v>176.439439640395</v>
+        <v>202.927645827546</v>
       </c>
       <c r="N33" t="n">
-        <v>287.4309731640694</v>
+        <v>313.9191793512204</v>
       </c>
       <c r="O33" t="n">
-        <v>387.4830745953194</v>
+        <v>413.9712807824704</v>
       </c>
       <c r="P33" t="n">
-        <v>448.4506404996946</v>
+        <v>448.4506404996945</v>
       </c>
       <c r="Q33" t="n">
-        <v>448.4506404996946</v>
+        <v>448.4506404996945</v>
       </c>
       <c r="R33" t="n">
-        <v>411.5072838557631</v>
+        <v>448.4506404996945</v>
       </c>
       <c r="S33" t="n">
-        <v>411.5072838557631</v>
+        <v>448.4506404996945</v>
       </c>
       <c r="T33" t="n">
-        <v>411.5072838557631</v>
+        <v>448.4506404996945</v>
       </c>
       <c r="U33" t="n">
-        <v>348.7043465218837</v>
+        <v>335.2055292623979</v>
       </c>
       <c r="V33" t="n">
-        <v>235.4592352845871</v>
+        <v>221.9604180251013</v>
       </c>
       <c r="W33" t="n">
-        <v>122.2141240472905</v>
+        <v>221.9604180251013</v>
       </c>
       <c r="X33" t="n">
-        <v>122.2141240472905</v>
+        <v>221.9604180251013</v>
       </c>
       <c r="Y33" t="n">
-        <v>122.2141240472905</v>
+        <v>221.9604180251013</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>122.2141240472905</v>
+        <v>8.96901280999389</v>
       </c>
       <c r="C34" t="n">
-        <v>122.2141240472905</v>
+        <v>8.96901280999389</v>
       </c>
       <c r="D34" t="n">
-        <v>122.2141240472905</v>
+        <v>8.96901280999389</v>
       </c>
       <c r="E34" t="n">
-        <v>122.2141240472905</v>
+        <v>8.96901280999389</v>
       </c>
       <c r="F34" t="n">
-        <v>122.2141240472905</v>
+        <v>8.96901280999389</v>
       </c>
       <c r="G34" t="n">
-        <v>8.969012809993892</v>
+        <v>8.96901280999389</v>
       </c>
       <c r="H34" t="n">
-        <v>8.969012809993892</v>
+        <v>8.96901280999389</v>
       </c>
       <c r="I34" t="n">
-        <v>8.969012809993892</v>
+        <v>8.96901280999389</v>
       </c>
       <c r="J34" t="n">
-        <v>8.969012809993892</v>
+        <v>8.96901280999389</v>
       </c>
       <c r="K34" t="n">
-        <v>8.969012809993892</v>
+        <v>85.67486684193851</v>
       </c>
       <c r="L34" t="n">
-        <v>119.9605463336683</v>
+        <v>196.6664003656129</v>
       </c>
       <c r="M34" t="n">
-        <v>230.9520798573427</v>
+        <v>307.6579338892873</v>
       </c>
       <c r="N34" t="n">
-        <v>341.9436133810171</v>
+        <v>418.6494674129617</v>
       </c>
       <c r="O34" t="n">
-        <v>448.4506404996946</v>
+        <v>448.4506404996945</v>
       </c>
       <c r="P34" t="n">
-        <v>448.4506404996946</v>
+        <v>448.4506404996945</v>
       </c>
       <c r="Q34" t="n">
-        <v>448.4506404996946</v>
+        <v>448.4506404996945</v>
       </c>
       <c r="R34" t="n">
+        <v>448.4506404996945</v>
+      </c>
+      <c r="S34" t="n">
+        <v>448.4506404996945</v>
+      </c>
+      <c r="T34" t="n">
         <v>348.7043465218837</v>
       </c>
-      <c r="S34" t="n">
+      <c r="U34" t="n">
         <v>348.7043465218837</v>
       </c>
-      <c r="T34" t="n">
+      <c r="V34" t="n">
         <v>235.4592352845871</v>
-      </c>
-      <c r="U34" t="n">
-        <v>235.4592352845871</v>
-      </c>
-      <c r="V34" t="n">
-        <v>122.2141240472905</v>
       </c>
       <c r="W34" t="n">
         <v>122.2141240472905</v>
       </c>
       <c r="X34" t="n">
-        <v>122.2141240472905</v>
+        <v>8.96901280999389</v>
       </c>
       <c r="Y34" t="n">
-        <v>122.2141240472905</v>
+        <v>8.96901280999389</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>235.4592352845871</v>
+        <v>192.0243253124957</v>
       </c>
       <c r="C35" t="n">
-        <v>235.4592352845871</v>
+        <v>78.77921407519904</v>
       </c>
       <c r="D35" t="n">
-        <v>235.4592352845871</v>
+        <v>78.77921407519904</v>
       </c>
       <c r="E35" t="n">
-        <v>235.4592352845871</v>
+        <v>78.77921407519904</v>
       </c>
       <c r="F35" t="n">
-        <v>235.4592352845871</v>
+        <v>78.77921407519904</v>
       </c>
       <c r="G35" t="n">
-        <v>122.2141240472905</v>
+        <v>78.77921407519904</v>
       </c>
       <c r="H35" t="n">
-        <v>8.969012809993892</v>
+        <v>78.77921407519904</v>
       </c>
       <c r="I35" t="n">
-        <v>8.969012809993892</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="J35" t="n">
-        <v>8.969012809993892</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="K35" t="n">
-        <v>32.11753523687545</v>
+        <v>32.11753523687554</v>
       </c>
       <c r="L35" t="n">
-        <v>97.73708609773408</v>
+        <v>97.73708609773416</v>
       </c>
       <c r="M35" t="n">
-        <v>202.420917408393</v>
+        <v>202.4209174083932</v>
       </c>
       <c r="N35" t="n">
-        <v>313.4124509320674</v>
+        <v>313.4124509320675</v>
       </c>
       <c r="O35" t="n">
-        <v>404.8833474416797</v>
+        <v>404.8833474416798</v>
       </c>
       <c r="P35" t="n">
-        <v>448.4506404996946</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="Q35" t="n">
-        <v>448.4506404996946</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="R35" t="n">
-        <v>448.4506404996946</v>
+        <v>418.514547787089</v>
       </c>
       <c r="S35" t="n">
-        <v>448.4506404996946</v>
+        <v>418.514547787089</v>
       </c>
       <c r="T35" t="n">
-        <v>448.4506404996946</v>
+        <v>305.2694365497924</v>
       </c>
       <c r="U35" t="n">
-        <v>448.4506404996946</v>
+        <v>305.2694365497924</v>
       </c>
       <c r="V35" t="n">
-        <v>448.4506404996946</v>
+        <v>305.2694365497924</v>
       </c>
       <c r="W35" t="n">
-        <v>348.7043465218837</v>
+        <v>192.0243253124957</v>
       </c>
       <c r="X35" t="n">
-        <v>348.7043465218837</v>
+        <v>192.0243253124957</v>
       </c>
       <c r="Y35" t="n">
-        <v>235.4592352845871</v>
+        <v>192.0243253124957</v>
       </c>
     </row>
     <row r="36">
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>8.969012809993892</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="C36" t="n">
-        <v>8.969012809993892</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="D36" t="n">
-        <v>8.969012809993892</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="E36" t="n">
-        <v>8.969012809993892</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="F36" t="n">
-        <v>8.969012809993892</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="G36" t="n">
-        <v>8.969012809993892</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="H36" t="n">
-        <v>8.969012809993892</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="I36" t="n">
-        <v>8.969012809993892</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="J36" t="n">
-        <v>8.969012809993892</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="K36" t="n">
         <v>36.22166818534551</v>
@@ -7023,43 +7023,43 @@
         <v>119.1887676792232</v>
       </c>
       <c r="M36" t="n">
-        <v>176.439439640395</v>
+        <v>230.1803012028977</v>
       </c>
       <c r="N36" t="n">
-        <v>287.4309731640694</v>
+        <v>287.4309731640696</v>
       </c>
       <c r="O36" t="n">
-        <v>387.4830745953194</v>
+        <v>387.4830745953196</v>
       </c>
       <c r="P36" t="n">
-        <v>448.4506404996946</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="Q36" t="n">
-        <v>448.4506404996946</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="R36" t="n">
-        <v>448.4506404996946</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="S36" t="n">
-        <v>448.4506404996946</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="T36" t="n">
-        <v>448.4506404996946</v>
+        <v>335.2055292623981</v>
       </c>
       <c r="U36" t="n">
-        <v>335.205529262398</v>
+        <v>235.4592352845872</v>
       </c>
       <c r="V36" t="n">
-        <v>335.205529262398</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="W36" t="n">
-        <v>221.9604180251014</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="X36" t="n">
-        <v>221.9604180251014</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="Y36" t="n">
-        <v>108.7153067878047</v>
+        <v>8.969012809993895</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8.969012809993892</v>
+        <v>221.9604180251014</v>
       </c>
       <c r="C37" t="n">
-        <v>8.969012809993892</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="D37" t="n">
-        <v>8.969012809993892</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="E37" t="n">
-        <v>8.969012809993892</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="F37" t="n">
-        <v>8.969012809993892</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="G37" t="n">
-        <v>8.969012809993892</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="H37" t="n">
-        <v>8.969012809993892</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="I37" t="n">
-        <v>8.969012809993892</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="J37" t="n">
-        <v>8.969012809993892</v>
+        <v>8.969012809993895</v>
       </c>
       <c r="K37" t="n">
-        <v>8.969012809993892</v>
+        <v>85.67486684193852</v>
       </c>
       <c r="L37" t="n">
-        <v>119.9605463336683</v>
+        <v>196.666400365613</v>
       </c>
       <c r="M37" t="n">
-        <v>230.9520798573427</v>
+        <v>237.3516691331951</v>
       </c>
       <c r="N37" t="n">
-        <v>341.9436133810171</v>
+        <v>348.3432026568696</v>
       </c>
       <c r="O37" t="n">
-        <v>448.4506404996946</v>
+        <v>348.3432026568696</v>
       </c>
       <c r="P37" t="n">
-        <v>448.4506404996946</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="Q37" t="n">
-        <v>434.037948761593</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="R37" t="n">
-        <v>434.037948761593</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="S37" t="n">
-        <v>320.7928375242964</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="T37" t="n">
-        <v>207.5477262869998</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="U37" t="n">
-        <v>207.5477262869998</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="V37" t="n">
-        <v>94.30261504970319</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="W37" t="n">
-        <v>8.969012809993892</v>
+        <v>335.2055292623981</v>
       </c>
       <c r="X37" t="n">
-        <v>8.969012809993892</v>
+        <v>335.2055292623981</v>
       </c>
       <c r="Y37" t="n">
-        <v>8.969012809993892</v>
+        <v>335.2055292623981</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>235.4592352845872</v>
+        <v>335.205529262398</v>
       </c>
       <c r="C38" t="n">
-        <v>235.4592352845872</v>
+        <v>335.205529262398</v>
       </c>
       <c r="D38" t="n">
-        <v>235.4592352845872</v>
+        <v>335.205529262398</v>
       </c>
       <c r="E38" t="n">
-        <v>122.2141240472906</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="F38" t="n">
-        <v>8.969012809993895</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="G38" t="n">
-        <v>8.969012809993895</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H38" t="n">
-        <v>8.969012809993895</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I38" t="n">
-        <v>8.969012809993895</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J38" t="n">
-        <v>8.969012809993895</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K38" t="n">
-        <v>32.11753523687543</v>
+        <v>32.11753523687547</v>
       </c>
       <c r="L38" t="n">
-        <v>97.73708609773396</v>
+        <v>97.73708609773412</v>
       </c>
       <c r="M38" t="n">
-        <v>202.4209174083929</v>
+        <v>202.4209174083931</v>
       </c>
       <c r="N38" t="n">
-        <v>313.4124509320673</v>
+        <v>313.4124509320675</v>
       </c>
       <c r="O38" t="n">
-        <v>404.8833474416798</v>
+        <v>404.8833474416797</v>
       </c>
       <c r="P38" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q38" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="R38" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="S38" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="T38" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="U38" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="V38" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="W38" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="X38" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Y38" t="n">
-        <v>348.7043465218839</v>
+        <v>448.4506404996946</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>122.2141240472906</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="C39" t="n">
-        <v>8.969012809993895</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="D39" t="n">
-        <v>8.969012809993895</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="E39" t="n">
-        <v>8.969012809993895</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="F39" t="n">
-        <v>8.969012809993895</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="G39" t="n">
-        <v>8.969012809993895</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H39" t="n">
-        <v>8.969012809993895</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I39" t="n">
-        <v>8.969012809993895</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J39" t="n">
-        <v>8.969012809993895</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K39" t="n">
         <v>36.22166818534551</v>
@@ -7263,40 +7263,40 @@
         <v>230.1803012028977</v>
       </c>
       <c r="N39" t="n">
-        <v>287.4309731640696</v>
+        <v>287.4309731640694</v>
       </c>
       <c r="O39" t="n">
-        <v>387.4830745953196</v>
+        <v>387.4830745953194</v>
       </c>
       <c r="P39" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q39" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="R39" t="n">
-        <v>448.4506404996948</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="S39" t="n">
-        <v>448.4506404996948</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="T39" t="n">
-        <v>448.4506404996948</v>
+        <v>298.2621726184665</v>
       </c>
       <c r="U39" t="n">
-        <v>348.7043465218839</v>
+        <v>298.2621726184665</v>
       </c>
       <c r="V39" t="n">
-        <v>235.4592352845872</v>
+        <v>185.0170613811699</v>
       </c>
       <c r="W39" t="n">
-        <v>122.2141240472906</v>
+        <v>71.77195014387324</v>
       </c>
       <c r="X39" t="n">
-        <v>122.2141240472906</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="Y39" t="n">
-        <v>122.2141240472906</v>
+        <v>8.969012809993892</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>348.7043465218839</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="C40" t="n">
-        <v>348.7043465218839</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="D40" t="n">
-        <v>235.4592352845872</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="E40" t="n">
-        <v>122.2141240472906</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="F40" t="n">
-        <v>122.2141240472906</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="G40" t="n">
-        <v>122.2141240472906</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2141240472906</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I40" t="n">
-        <v>8.969012809993895</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J40" t="n">
-        <v>8.969012809993895</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K40" t="n">
-        <v>8.969012809993895</v>
+        <v>85.67486684193852</v>
       </c>
       <c r="L40" t="n">
-        <v>119.9605463336683</v>
+        <v>85.67486684193852</v>
       </c>
       <c r="M40" t="n">
-        <v>230.9520798573428</v>
+        <v>196.6664003656129</v>
       </c>
       <c r="N40" t="n">
-        <v>341.9436133810173</v>
+        <v>307.6579338892873</v>
       </c>
       <c r="O40" t="n">
-        <v>348.3432026568696</v>
+        <v>418.6494674129617</v>
       </c>
       <c r="P40" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q40" t="n">
-        <v>434.0379487615932</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="R40" t="n">
-        <v>348.7043465218839</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="S40" t="n">
-        <v>348.7043465218839</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="T40" t="n">
-        <v>348.7043465218839</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="U40" t="n">
-        <v>348.7043465218839</v>
+        <v>335.205529262398</v>
       </c>
       <c r="V40" t="n">
-        <v>348.7043465218839</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="W40" t="n">
-        <v>348.7043465218839</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="X40" t="n">
-        <v>348.7043465218839</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="Y40" t="n">
-        <v>348.7043465218839</v>
+        <v>8.969012809993892</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>122.2141240472905</v>
+        <v>335.205529262398</v>
       </c>
       <c r="C41" t="n">
-        <v>122.2141240472905</v>
+        <v>221.9604180251014</v>
       </c>
       <c r="D41" t="n">
-        <v>8.969012809993892</v>
+        <v>108.7153067878047</v>
       </c>
       <c r="E41" t="n">
         <v>8.969012809993892</v>
@@ -7412,49 +7412,49 @@
         <v>8.969012809993892</v>
       </c>
       <c r="K41" t="n">
-        <v>32.11753523687554</v>
+        <v>32.11753523687545</v>
       </c>
       <c r="L41" t="n">
-        <v>97.73708609773416</v>
+        <v>97.73708609773399</v>
       </c>
       <c r="M41" t="n">
-        <v>202.420917408393</v>
+        <v>202.4209174083929</v>
       </c>
       <c r="N41" t="n">
         <v>313.4124509320674</v>
       </c>
       <c r="O41" t="n">
-        <v>404.8833474416796</v>
+        <v>404.8833474416797</v>
       </c>
       <c r="P41" t="n">
-        <v>448.4506404996945</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q41" t="n">
-        <v>448.4506404996945</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="R41" t="n">
-        <v>448.4506404996945</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="S41" t="n">
-        <v>448.4506404996945</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="T41" t="n">
-        <v>448.4506404996945</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="U41" t="n">
-        <v>448.4506404996945</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="V41" t="n">
-        <v>348.7043465218837</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="W41" t="n">
-        <v>348.7043465218837</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="X41" t="n">
-        <v>348.7043465218837</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Y41" t="n">
-        <v>235.4592352845871</v>
+        <v>335.205529262398</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>185.0170613811698</v>
+        <v>221.9604180251014</v>
       </c>
       <c r="C42" t="n">
-        <v>71.7719501438732</v>
+        <v>108.7153067878047</v>
       </c>
       <c r="D42" t="n">
-        <v>71.7719501438732</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="E42" t="n">
-        <v>71.7719501438732</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="F42" t="n">
         <v>8.969012809993892</v>
@@ -7497,43 +7497,43 @@
         <v>119.1887676792232</v>
       </c>
       <c r="M42" t="n">
-        <v>230.1803012028976</v>
+        <v>230.1803012028977</v>
       </c>
       <c r="N42" t="n">
-        <v>341.171834726572</v>
+        <v>287.4309731640694</v>
       </c>
       <c r="O42" t="n">
-        <v>441.223936157822</v>
+        <v>387.4830745953194</v>
       </c>
       <c r="P42" t="n">
-        <v>448.4506404996945</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q42" t="n">
-        <v>448.4506404996945</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="R42" t="n">
-        <v>411.507283855763</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="S42" t="n">
-        <v>411.507283855763</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="T42" t="n">
-        <v>298.2621726184664</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="U42" t="n">
-        <v>298.2621726184664</v>
+        <v>335.205529262398</v>
       </c>
       <c r="V42" t="n">
-        <v>298.2621726184664</v>
+        <v>335.205529262398</v>
       </c>
       <c r="W42" t="n">
-        <v>298.2621726184664</v>
+        <v>335.205529262398</v>
       </c>
       <c r="X42" t="n">
-        <v>298.2621726184664</v>
+        <v>335.205529262398</v>
       </c>
       <c r="Y42" t="n">
-        <v>298.2621726184664</v>
+        <v>335.205529262398</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.4592352845871</v>
+        <v>94.30261504970319</v>
       </c>
       <c r="C43" t="n">
-        <v>235.4592352845871</v>
+        <v>94.30261504970319</v>
       </c>
       <c r="D43" t="n">
-        <v>235.4592352845871</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="E43" t="n">
-        <v>235.4592352845871</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="F43" t="n">
-        <v>235.4592352845871</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="G43" t="n">
-        <v>122.2141240472905</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H43" t="n">
         <v>8.969012809993892</v>
@@ -7570,49 +7570,49 @@
         <v>8.969012809993892</v>
       </c>
       <c r="K43" t="n">
-        <v>8.969012809993892</v>
+        <v>85.67486684193852</v>
       </c>
       <c r="L43" t="n">
-        <v>115.4760399286714</v>
+        <v>196.6664003656129</v>
       </c>
       <c r="M43" t="n">
-        <v>226.4675734523458</v>
+        <v>196.6664003656129</v>
       </c>
       <c r="N43" t="n">
-        <v>337.4591069760202</v>
+        <v>237.351669133195</v>
       </c>
       <c r="O43" t="n">
-        <v>448.4506404996945</v>
+        <v>348.3432026568694</v>
       </c>
       <c r="P43" t="n">
-        <v>448.4506404996945</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q43" t="n">
         <v>434.037948761593</v>
       </c>
       <c r="R43" t="n">
+        <v>434.037948761593</v>
+      </c>
+      <c r="S43" t="n">
+        <v>434.037948761593</v>
+      </c>
+      <c r="T43" t="n">
+        <v>434.037948761593</v>
+      </c>
+      <c r="U43" t="n">
         <v>320.7928375242964</v>
       </c>
-      <c r="S43" t="n">
-        <v>235.4592352845871</v>
-      </c>
-      <c r="T43" t="n">
-        <v>235.4592352845871</v>
-      </c>
-      <c r="U43" t="n">
-        <v>235.4592352845871</v>
-      </c>
       <c r="V43" t="n">
-        <v>235.4592352845871</v>
+        <v>207.5477262869998</v>
       </c>
       <c r="W43" t="n">
-        <v>235.4592352845871</v>
+        <v>207.5477262869998</v>
       </c>
       <c r="X43" t="n">
-        <v>235.4592352845871</v>
+        <v>94.30261504970319</v>
       </c>
       <c r="Y43" t="n">
-        <v>235.4592352845871</v>
+        <v>94.30261504970319</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>122.2141240472905</v>
+        <v>305.2694365497923</v>
       </c>
       <c r="C44" t="n">
-        <v>122.2141240472905</v>
+        <v>305.2694365497923</v>
       </c>
       <c r="D44" t="n">
-        <v>122.2141240472905</v>
+        <v>305.2694365497923</v>
       </c>
       <c r="E44" t="n">
-        <v>122.2141240472905</v>
+        <v>192.0243253124956</v>
       </c>
       <c r="F44" t="n">
-        <v>122.2141240472905</v>
+        <v>78.77921407519902</v>
       </c>
       <c r="G44" t="n">
-        <v>8.969012809993892</v>
+        <v>78.77921407519902</v>
       </c>
       <c r="H44" t="n">
-        <v>8.969012809993892</v>
+        <v>78.77921407519902</v>
       </c>
       <c r="I44" t="n">
         <v>8.969012809993892</v>
@@ -7649,49 +7649,49 @@
         <v>8.969012809993892</v>
       </c>
       <c r="K44" t="n">
-        <v>32.11753523687547</v>
+        <v>32.11753523687553</v>
       </c>
       <c r="L44" t="n">
-        <v>97.73708609773412</v>
+        <v>97.73708609773418</v>
       </c>
       <c r="M44" t="n">
-        <v>202.420917408393</v>
+        <v>202.4209174083931</v>
       </c>
       <c r="N44" t="n">
-        <v>313.4124509320674</v>
+        <v>313.4124509320675</v>
       </c>
       <c r="O44" t="n">
-        <v>404.8833474416796</v>
+        <v>404.8833474416797</v>
       </c>
       <c r="P44" t="n">
-        <v>448.4506404996945</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q44" t="n">
-        <v>448.4506404996945</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="R44" t="n">
-        <v>418.5145477870888</v>
+        <v>418.5145477870889</v>
       </c>
       <c r="S44" t="n">
-        <v>418.5145477870888</v>
+        <v>418.5145477870889</v>
       </c>
       <c r="T44" t="n">
-        <v>418.5145477870888</v>
+        <v>418.5145477870889</v>
       </c>
       <c r="U44" t="n">
-        <v>418.5145477870888</v>
+        <v>418.5145477870889</v>
       </c>
       <c r="V44" t="n">
-        <v>305.2694365497922</v>
+        <v>418.5145477870889</v>
       </c>
       <c r="W44" t="n">
-        <v>192.0243253124956</v>
+        <v>418.5145477870889</v>
       </c>
       <c r="X44" t="n">
-        <v>122.2141240472905</v>
+        <v>305.2694365497923</v>
       </c>
       <c r="Y44" t="n">
-        <v>122.2141240472905</v>
+        <v>305.2694365497923</v>
       </c>
     </row>
     <row r="45">
@@ -7731,10 +7731,10 @@
         <v>36.22166818534551</v>
       </c>
       <c r="L45" t="n">
-        <v>119.1887676792232</v>
+        <v>65.44790611672062</v>
       </c>
       <c r="M45" t="n">
-        <v>230.1803012028976</v>
+        <v>176.439439640395</v>
       </c>
       <c r="N45" t="n">
         <v>287.4309731640694</v>
@@ -7743,28 +7743,28 @@
         <v>387.4830745953194</v>
       </c>
       <c r="P45" t="n">
-        <v>448.4506404996945</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q45" t="n">
-        <v>448.4506404996945</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="R45" t="n">
-        <v>411.507283855763</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="S45" t="n">
-        <v>411.507283855763</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="T45" t="n">
-        <v>411.507283855763</v>
+        <v>348.7043465218837</v>
       </c>
       <c r="U45" t="n">
-        <v>298.2621726184664</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="V45" t="n">
-        <v>185.0170613811698</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="W45" t="n">
-        <v>71.7719501438732</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="X45" t="n">
         <v>8.969012809993892</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>8.969012809993892</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="C46" t="n">
-        <v>8.969012809993892</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="D46" t="n">
-        <v>8.969012809993892</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="E46" t="n">
-        <v>8.969012809993892</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="F46" t="n">
-        <v>8.969012809993892</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="G46" t="n">
         <v>8.969012809993892</v>
@@ -7810,46 +7810,46 @@
         <v>85.67486684193852</v>
       </c>
       <c r="L46" t="n">
+        <v>85.67486684193852</v>
+      </c>
+      <c r="M46" t="n">
         <v>196.6664003656129</v>
       </c>
-      <c r="M46" t="n">
+      <c r="N46" t="n">
         <v>307.6579338892873</v>
       </c>
-      <c r="N46" t="n">
+      <c r="O46" t="n">
         <v>418.6494674129617</v>
       </c>
-      <c r="O46" t="n">
-        <v>448.4506404996945</v>
-      </c>
       <c r="P46" t="n">
-        <v>448.4506404996945</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q46" t="n">
-        <v>448.4506404996945</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="R46" t="n">
-        <v>448.4506404996945</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="S46" t="n">
-        <v>448.4506404996945</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="T46" t="n">
         <v>348.7043465218837</v>
       </c>
       <c r="U46" t="n">
+        <v>348.7043465218837</v>
+      </c>
+      <c r="V46" t="n">
+        <v>348.7043465218837</v>
+      </c>
+      <c r="W46" t="n">
+        <v>348.7043465218837</v>
+      </c>
+      <c r="X46" t="n">
         <v>235.4592352845871</v>
       </c>
-      <c r="V46" t="n">
-        <v>122.2141240472905</v>
-      </c>
-      <c r="W46" t="n">
-        <v>8.969012809993892</v>
-      </c>
-      <c r="X46" t="n">
-        <v>8.969012809993892</v>
-      </c>
       <c r="Y46" t="n">
-        <v>8.969012809993892</v>
+        <v>235.4592352845871</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>69.75247211164648</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K2" t="n">
-        <v>53.28984570098882</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L2" t="n">
-        <v>28.8362588753597</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M2" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.161922983629779</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P2" t="n">
-        <v>42.66898511507466</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.70197082457096</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>60.55202075660908</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K3" t="n">
-        <v>24.54878065809741</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>50.42343072191045</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>60.67557455063191</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L4" t="n">
-        <v>47.4359690887577</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M4" t="n">
-        <v>46.72338342663512</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N4" t="n">
-        <v>37.67551094615366</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O4" t="n">
-        <v>55.31770395088348</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P4" t="n">
-        <v>66.5883684560963</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>9.069265482343781</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P8" t="n">
         <v>42.58990408143413</v>
       </c>
       <c r="Q8" t="n">
-        <v>80.64258426171736</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8614,10 +8614,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L10" t="n">
-        <v>47.39929435887774</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M10" t="n">
-        <v>46.68471506615327</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N10" t="n">
         <v>37.63776203285606</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>18.59473170946464</v>
+        <v>18.59473170946467</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.61164031771682</v>
+        <v>15.61164031771685</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>30.08282103867671</v>
+        <v>30.08282103867673</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.256558775821418</v>
+        <v>9.256558775821446</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,19 +8848,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>35.72733729809465</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>119.3514840274685</v>
+        <v>119.3514840274684</v>
       </c>
       <c r="M13" t="n">
-        <v>4.341129883412066</v>
+        <v>4.341129883412094</v>
       </c>
       <c r="N13" t="n">
-        <v>108.4136727881177</v>
+        <v>108.4136727881176</v>
       </c>
       <c r="O13" t="n">
-        <v>129.2143182548925</v>
+        <v>58.1978892083345</v>
       </c>
       <c r="P13" t="n">
         <v>135.0065633140411</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>18.59473170946464</v>
+        <v>18.59473170946467</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.61164031771679</v>
+        <v>15.61164031771685</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>30.0828210386767</v>
+        <v>30.08282103867673</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.256558775821418</v>
+        <v>9.256558775821446</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9085,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>29.26310570632461</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
         <v>119.3514840274684</v>
       </c>
       <c r="M16" t="n">
-        <v>116.4537900083358</v>
+        <v>4.341129883412094</v>
       </c>
       <c r="N16" t="n">
         <v>108.4136727881177</v>
       </c>
       <c r="O16" t="n">
-        <v>124.6845138054007</v>
+        <v>58.19788920833456</v>
       </c>
       <c r="P16" t="n">
-        <v>33.88793923037923</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>15.61164031771679</v>
+        <v>15.61164031771682</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>30.0828210386767</v>
+        <v>30.08282103867671</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9325,19 +9325,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>119.3514840274684</v>
+        <v>7.238823902544752</v>
       </c>
       <c r="M19" t="n">
         <v>116.4537900083358</v>
       </c>
       <c r="N19" t="n">
-        <v>108.4136727881177</v>
+        <v>37.39724374155979</v>
       </c>
       <c r="O19" t="n">
-        <v>17.10165812996877</v>
+        <v>129.2143182548925</v>
       </c>
       <c r="P19" t="n">
-        <v>63.99013426748316</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9559,22 +9559,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>29.26310570632462</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>13.70305549431477</v>
+        <v>119.3514840274684</v>
       </c>
       <c r="M22" t="n">
-        <v>116.4537900083358</v>
+        <v>34.44332492051593</v>
       </c>
       <c r="N22" t="n">
-        <v>108.4136727881177</v>
+        <v>108.4136727881176</v>
       </c>
       <c r="O22" t="n">
-        <v>129.2143182548925</v>
+        <v>129.2143182548924</v>
       </c>
       <c r="P22" t="n">
-        <v>135.0065633140411</v>
+        <v>33.88793923037925</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9796,22 +9796,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>29.26310570632462</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>119.3514840274685</v>
+        <v>119.3514840274684</v>
       </c>
       <c r="M25" t="n">
-        <v>116.4537900083358</v>
+        <v>45.43736096177777</v>
       </c>
       <c r="N25" t="n">
-        <v>108.4136727881177</v>
+        <v>108.4136727881176</v>
       </c>
       <c r="O25" t="n">
-        <v>124.6845138054007</v>
+        <v>17.10165812996878</v>
       </c>
       <c r="P25" t="n">
-        <v>33.88793923037925</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -10033,19 +10033,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>29.26310570632462</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>119.3514840274685</v>
+        <v>119.3514840274684</v>
       </c>
       <c r="M28" t="n">
-        <v>116.4537900083358</v>
+        <v>116.4537900083357</v>
       </c>
       <c r="N28" t="n">
-        <v>2.765244254963994</v>
+        <v>37.39724374155968</v>
       </c>
       <c r="O28" t="n">
-        <v>129.2143182548925</v>
+        <v>17.10165812996878</v>
       </c>
       <c r="P28" t="n">
         <v>135.0065633140411</v>
@@ -10270,19 +10270,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>29.26310570632462</v>
       </c>
       <c r="L31" t="n">
-        <v>119.3514840274685</v>
+        <v>119.3514840274684</v>
       </c>
       <c r="M31" t="n">
-        <v>116.4537900083358</v>
+        <v>116.4537900083357</v>
       </c>
       <c r="N31" t="n">
-        <v>108.4136727881177</v>
+        <v>103.8838683386257</v>
       </c>
       <c r="O31" t="n">
-        <v>47.20385316707271</v>
+        <v>129.2143182548924</v>
       </c>
       <c r="P31" t="n">
         <v>33.88793923037925</v>
@@ -10507,7 +10507,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>29.26310570632462</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
         <v>119.3514840274684</v>
@@ -10519,7 +10519,7 @@
         <v>108.4136727881176</v>
       </c>
       <c r="O34" t="n">
-        <v>124.6845138054006</v>
+        <v>47.20385316707265</v>
       </c>
       <c r="P34" t="n">
         <v>33.88793923037925</v>
@@ -10744,22 +10744,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>29.26310570632462</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
         <v>119.3514840274684</v>
       </c>
       <c r="M37" t="n">
-        <v>116.4537900083357</v>
+        <v>45.43736096177788</v>
       </c>
       <c r="N37" t="n">
-        <v>108.4136727881176</v>
+        <v>108.4136727881177</v>
       </c>
       <c r="O37" t="n">
-        <v>124.6845138054006</v>
+        <v>17.10165812996878</v>
       </c>
       <c r="P37" t="n">
-        <v>33.88793923037925</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10981,22 +10981,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>29.26310570632462</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>119.3514840274684</v>
+        <v>7.238823902544752</v>
       </c>
       <c r="M40" t="n">
-        <v>116.4537900083358</v>
+        <v>116.4537900083357</v>
       </c>
       <c r="N40" t="n">
-        <v>108.4136727881177</v>
+        <v>108.4136727881176</v>
       </c>
       <c r="O40" t="n">
-        <v>23.56588972173878</v>
+        <v>129.2143182548924</v>
       </c>
       <c r="P40" t="n">
-        <v>135.0065633140411</v>
+        <v>63.99013426748317</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11218,22 +11218,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>29.26310570632462</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>114.8216795779766</v>
+        <v>119.3514840274684</v>
       </c>
       <c r="M43" t="n">
-        <v>116.4537900083357</v>
+        <v>4.341129883412066</v>
       </c>
       <c r="N43" t="n">
-        <v>108.4136727881176</v>
+        <v>37.39724374155968</v>
       </c>
       <c r="O43" t="n">
         <v>129.2143182548924</v>
       </c>
       <c r="P43" t="n">
-        <v>33.88793923037925</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11458,7 +11458,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>119.3514840274684</v>
+        <v>7.238823902544752</v>
       </c>
       <c r="M46" t="n">
         <v>116.4537900083357</v>
@@ -11467,10 +11467,10 @@
         <v>108.4136727881176</v>
       </c>
       <c r="O46" t="n">
-        <v>47.20385316707271</v>
+        <v>129.2143182548924</v>
       </c>
       <c r="P46" t="n">
-        <v>33.88793923037925</v>
+        <v>63.99013426748317</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -22559,13 +22559,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.9914553764875</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H2" t="n">
-        <v>326.0456339133427</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I2" t="n">
-        <v>159.9226849201952</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,16 +22592,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>67.4992912993288</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S2" t="n">
-        <v>179.1392278518137</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T2" t="n">
-        <v>217.3557120022016</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22638,13 +22638,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H3" t="n">
-        <v>105.4594865644317</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I3" t="n">
-        <v>65.24074378433592</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,16 +22671,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.59722706556381</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S3" t="n">
-        <v>158.6512997408977</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T3" t="n">
-        <v>197.336797223147</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22717,16 +22717,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H4" t="n">
-        <v>156.9975751224423</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I4" t="n">
-        <v>137.761816287615</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J4" t="n">
-        <v>51.77372115642321</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,19 +22747,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>36.90864702141808</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R4" t="n">
-        <v>150.8459592031442</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S4" t="n">
-        <v>213.7659454939867</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T4" t="n">
-        <v>225.4323882309924</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U4" t="n">
-        <v>286.286945936951</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -23066,7 +23066,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>67.46474657889402</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S8" t="n">
         <v>179.1266962566148</v>
@@ -23145,7 +23145,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>56.57895837355434</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S9" t="n">
         <v>158.6458343615066</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>270.6211815385569</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23267,10 +23267,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>294.7633856167878</v>
       </c>
       <c r="G11" t="n">
-        <v>413.3887043444878</v>
+        <v>344.2766050919348</v>
       </c>
       <c r="H11" t="n">
         <v>319.8727099068761</v>
@@ -23303,19 +23303,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>29.63673178547965</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>53.29137858519752</v>
+        <v>165.4040387101213</v>
       </c>
       <c r="T11" t="n">
-        <v>102.6045092346993</v>
+        <v>214.7171693596231</v>
       </c>
       <c r="U11" t="n">
-        <v>139.079870129261</v>
+        <v>251.1925302541847</v>
       </c>
       <c r="V11" t="n">
-        <v>229.0034274321021</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23324,7 +23324,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>274.1252785311299</v>
       </c>
     </row>
     <row r="12">
@@ -23343,10 +23343,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>45.53242033047731</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>32.95655226846024</v>
       </c>
       <c r="G12" t="n">
         <v>136.3194191323308</v>
@@ -23355,7 +23355,7 @@
         <v>102.3448132540521</v>
       </c>
       <c r="I12" t="n">
-        <v>54.13711731454486</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,25 +23382,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>36.57392307749219</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>152.6609993460486</v>
       </c>
       <c r="T12" t="n">
-        <v>97.28806392705845</v>
+        <v>196.0368949650912</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8740072105222</v>
+        <v>217.8362165645266</v>
       </c>
       <c r="V12" t="n">
-        <v>120.6879270245016</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>139.5823230359959</v>
+        <v>139.582323035996</v>
       </c>
       <c r="X12" t="n">
-        <v>93.66032507855377</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23437,7 +23437,7 @@
         <v>129.630951895051</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>32.65832442698834</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,22 +23458,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>14.26856482072056</v>
       </c>
       <c r="R13" t="n">
-        <v>26.57632952392134</v>
+        <v>138.6889896488451</v>
       </c>
       <c r="S13" t="n">
-        <v>96.94141504241693</v>
+        <v>110.305244129308</v>
       </c>
       <c r="T13" t="n">
         <v>112.1644964662546</v>
       </c>
       <c r="U13" t="n">
-        <v>234.450256508672</v>
+        <v>174.1595381740723</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>140.0249831989044</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>270.6211815385569</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>29.63673178547964</v>
+        <v>29.63673178547967</v>
       </c>
       <c r="S14" t="n">
-        <v>165.4040387101212</v>
+        <v>165.4040387101213</v>
       </c>
       <c r="T14" t="n">
-        <v>214.717169359623</v>
+        <v>214.7171693596231</v>
       </c>
       <c r="U14" t="n">
-        <v>152.443699216152</v>
+        <v>251.1925302541847</v>
       </c>
       <c r="V14" t="n">
-        <v>215.6395983452112</v>
+        <v>229.0034274321022</v>
       </c>
       <c r="W14" t="n">
-        <v>237.1283085924893</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>257.6184405535453</v>
+        <v>257.6184405535454</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>274.1252785311299</v>
       </c>
     </row>
     <row r="15">
@@ -23589,10 +23589,10 @@
         <v>136.3194191323308</v>
       </c>
       <c r="H15" t="n">
-        <v>102.3448132540521</v>
+        <v>40.16990529351155</v>
       </c>
       <c r="I15" t="n">
-        <v>54.13711731454486</v>
+        <v>54.13711731454487</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,28 +23619,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>36.57392307749218</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>152.6609993460486</v>
       </c>
       <c r="T15" t="n">
-        <v>97.28806392705845</v>
+        <v>196.0368949650912</v>
       </c>
       <c r="U15" t="n">
-        <v>113.7613470855985</v>
+        <v>225.8740072105222</v>
       </c>
       <c r="V15" t="n">
         <v>120.6879270245016</v>
       </c>
       <c r="W15" t="n">
-        <v>139.5823230359959</v>
+        <v>139.582323035996</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>93.57003565238071</v>
       </c>
     </row>
     <row r="16">
@@ -23659,22 +23659,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>34.32130252164552</v>
       </c>
       <c r="F16" t="n">
-        <v>46.6722169848985</v>
+        <v>33.3083878980076</v>
       </c>
       <c r="G16" t="n">
-        <v>55.01974984612792</v>
+        <v>55.01974984612798</v>
       </c>
       <c r="H16" t="n">
-        <v>42.48105001084153</v>
+        <v>88.50320352472083</v>
       </c>
       <c r="I16" t="n">
-        <v>17.51829177012726</v>
+        <v>129.630951895051</v>
       </c>
       <c r="J16" t="n">
-        <v>32.65832442698832</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>14.26856482072054</v>
+        <v>14.26856482072056</v>
       </c>
       <c r="R16" t="n">
         <v>138.6889896488451</v>
@@ -23741,7 +23741,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>294.7633856167877</v>
       </c>
       <c r="G17" t="n">
         <v>413.3887043444878</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>29.63673178547964</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>66.65520767208848</v>
+        <v>96.29193945756815</v>
       </c>
       <c r="T17" t="n">
-        <v>102.6045092346993</v>
+        <v>214.717169359623</v>
       </c>
       <c r="U17" t="n">
-        <v>139.079870129261</v>
+        <v>251.1925302541847</v>
       </c>
       <c r="V17" t="n">
-        <v>215.6395983452112</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>257.6184405535453</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>274.1252785311299</v>
       </c>
     </row>
     <row r="18">
@@ -23808,10 +23808,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>67.78435261183459</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>60.59583886339205</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23856,22 +23856,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>36.57392307749219</v>
       </c>
       <c r="S18" t="n">
-        <v>40.54833922112491</v>
+        <v>152.6609993460486</v>
       </c>
       <c r="T18" t="n">
-        <v>83.92423484016749</v>
+        <v>196.0368949650912</v>
       </c>
       <c r="U18" t="n">
-        <v>113.7613470855985</v>
+        <v>225.8740072105222</v>
       </c>
       <c r="V18" t="n">
-        <v>170.6256791888847</v>
+        <v>120.6879270245016</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>139.5823230359959</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23911,7 +23911,7 @@
         <v>129.630951895051</v>
       </c>
       <c r="J19" t="n">
-        <v>32.65832442698832</v>
+        <v>32.65832442698833</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,31 +23932,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.26856482072054</v>
+        <v>14.26856482072056</v>
       </c>
       <c r="R19" t="n">
-        <v>138.6889896488451</v>
+        <v>39.9401586108123</v>
       </c>
       <c r="S19" t="n">
-        <v>110.3052441293079</v>
+        <v>96.94141504241695</v>
       </c>
       <c r="T19" t="n">
         <v>224.2771565911783</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2721982989959</v>
+        <v>174.1595381740722</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>140.0249831989043</v>
       </c>
       <c r="W19" t="n">
-        <v>174.4103382116673</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>113.5969952641134</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>106.4719932271711</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,19 +23966,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>270.6211815385569</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>253.1602316460839</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>242.5703814957593</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>283.181539034229</v>
       </c>
       <c r="F20" t="n">
-        <v>294.7633856167877</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>413.3887043444878</v>
@@ -24017,10 +24017,10 @@
         <v>29.63673178547965</v>
       </c>
       <c r="S20" t="n">
-        <v>66.65520767208848</v>
+        <v>165.4040387101212</v>
       </c>
       <c r="T20" t="n">
-        <v>102.6045092346993</v>
+        <v>214.717169359623</v>
       </c>
       <c r="U20" t="n">
         <v>251.1925302541847</v>
@@ -24032,7 +24032,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>257.6184405535454</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24048,10 +24048,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>60.59583886339203</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>35.33240543971505</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24063,7 +24063,7 @@
         <v>136.3194191323308</v>
       </c>
       <c r="H21" t="n">
-        <v>102.3448132540521</v>
+        <v>3.595982216019351</v>
       </c>
       <c r="I21" t="n">
         <v>54.13711731454486</v>
@@ -24105,10 +24105,10 @@
         <v>113.7613470855985</v>
       </c>
       <c r="V21" t="n">
-        <v>134.0517561113925</v>
+        <v>120.6879270245016</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>139.582323035996</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24136,19 +24136,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>93.59910623260733</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>55.01974984612792</v>
+        <v>167.1324099710516</v>
       </c>
       <c r="H22" t="n">
-        <v>42.48105001084153</v>
+        <v>154.5937101357652</v>
       </c>
       <c r="I22" t="n">
-        <v>17.51829177012726</v>
+        <v>129.630951895051</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>32.65832442698833</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24175,16 +24175,16 @@
         <v>138.6889896488451</v>
       </c>
       <c r="S22" t="n">
-        <v>209.0540751673406</v>
+        <v>124.5738089500284</v>
       </c>
       <c r="T22" t="n">
-        <v>224.2771565911783</v>
+        <v>112.1644964662546</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2721982989959</v>
+        <v>174.1595381740723</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>140.0249831989044</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,13 +24203,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>270.6211815385569</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>242.5703814957592</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24218,13 +24218,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.3887043444878</v>
+        <v>301.2760442195641</v>
       </c>
       <c r="H23" t="n">
-        <v>319.8727099068761</v>
+        <v>250.760610654323</v>
       </c>
       <c r="I23" t="n">
-        <v>37.93629472099519</v>
+        <v>136.685125759028</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>29.63673178547965</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>165.4040387101212</v>
@@ -24266,13 +24266,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>237.1283085924894</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>257.6184405535454</v>
       </c>
       <c r="Y23" t="n">
-        <v>274.1252785311299</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24297,7 +24297,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>37.57058809429805</v>
+        <v>37.57058809429809</v>
       </c>
       <c r="H24" t="n">
         <v>102.3448132540521</v>
@@ -24342,16 +24342,16 @@
         <v>113.7613470855985</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>120.6879270245016</v>
       </c>
       <c r="W24" t="n">
-        <v>139.5823230359959</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>93.66032507855383</v>
       </c>
       <c r="Y24" t="n">
-        <v>93.57003565238065</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24364,10 +24364,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>55.13416097370418</v>
       </c>
       <c r="D25" t="n">
-        <v>49.86664198017957</v>
+        <v>49.86664198017961</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24412,25 +24412,25 @@
         <v>138.6889896488451</v>
       </c>
       <c r="S25" t="n">
-        <v>96.94141504241693</v>
+        <v>209.0540751673406</v>
       </c>
       <c r="T25" t="n">
         <v>224.2771565911783</v>
       </c>
       <c r="U25" t="n">
-        <v>174.1595381740722</v>
+        <v>286.2721982989959</v>
       </c>
       <c r="V25" t="n">
-        <v>140.0249831989043</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>113.5969952641135</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>106.4719932271711</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>283.9850106254478</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,10 +24449,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>269.8177099473381</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>294.7633856167877</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>301.2760442195641</v>
@@ -24500,13 +24500,13 @@
         <v>251.1925302541847</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>229.0034274321022</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>237.1283085924894</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>257.6184405535454</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,19 +24519,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>54.42052352494369</v>
       </c>
       <c r="C27" t="n">
-        <v>60.59583886339203</v>
+        <v>60.59583886339209</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>35.3324054397151</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>46.32038135535113</v>
       </c>
       <c r="G27" t="n">
         <v>136.3194191323308</v>
@@ -24573,7 +24573,7 @@
         <v>152.6609993460486</v>
       </c>
       <c r="T27" t="n">
-        <v>97.28806392705845</v>
+        <v>196.0368949650912</v>
       </c>
       <c r="U27" t="n">
         <v>225.8740072105222</v>
@@ -24585,10 +24585,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>93.66032507855377</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>93.57003565238065</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>81.08314914390455</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24646,28 +24646,28 @@
         <v>14.26856482072056</v>
       </c>
       <c r="R28" t="n">
-        <v>26.57632952392134</v>
+        <v>138.6889896488451</v>
       </c>
       <c r="S28" t="n">
-        <v>96.94141504241693</v>
+        <v>209.0540751673406</v>
       </c>
       <c r="T28" t="n">
-        <v>125.5283255531455</v>
+        <v>224.2771565911783</v>
       </c>
       <c r="U28" t="n">
-        <v>174.1595381740722</v>
+        <v>286.2721982989959</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>140.0249831989044</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>113.5969952641135</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>106.4719932271711</v>
       </c>
     </row>
     <row r="29">
@@ -24728,13 +24728,13 @@
         <v>29.63673178547965</v>
       </c>
       <c r="S29" t="n">
-        <v>165.4040387101212</v>
+        <v>66.65520767208848</v>
       </c>
       <c r="T29" t="n">
-        <v>214.717169359623</v>
+        <v>102.6045092346994</v>
       </c>
       <c r="U29" t="n">
-        <v>139.079870129261</v>
+        <v>139.0798701292611</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24743,10 +24743,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>270.9822696404362</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>274.1252785311299</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24810,22 +24810,22 @@
         <v>152.6609993460486</v>
       </c>
       <c r="T30" t="n">
-        <v>196.0368949650912</v>
+        <v>83.92423484016754</v>
       </c>
       <c r="U30" t="n">
-        <v>113.7613470855985</v>
+        <v>225.8740072105222</v>
       </c>
       <c r="V30" t="n">
-        <v>120.6879270245016</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>139.5823230359959</v>
+        <v>152.9461521228869</v>
       </c>
       <c r="X30" t="n">
-        <v>107.0241541654447</v>
+        <v>93.66032507855383</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>93.57003565238071</v>
       </c>
     </row>
     <row r="31">
@@ -24838,7 +24838,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>55.13416097370418</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>55.01974984612792</v>
+        <v>167.1324099710516</v>
       </c>
       <c r="H31" t="n">
         <v>154.5937101357652</v>
@@ -24883,13 +24883,13 @@
         <v>14.26856482072056</v>
       </c>
       <c r="R31" t="n">
-        <v>39.9401586108123</v>
+        <v>26.5763295239214</v>
       </c>
       <c r="S31" t="n">
-        <v>209.0540751673406</v>
+        <v>110.3052441293079</v>
       </c>
       <c r="T31" t="n">
-        <v>224.2771565911783</v>
+        <v>112.1644964662546</v>
       </c>
       <c r="U31" t="n">
         <v>286.2721982989959</v>
@@ -24898,13 +24898,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>174.4103382116673</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>106.4719932271711</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24917,7 +24917,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>253.1602316460839</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,13 +24926,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>294.7633856167878</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>301.2760442195641</v>
       </c>
       <c r="H32" t="n">
-        <v>221.1238788688433</v>
+        <v>319.8727099068761</v>
       </c>
       <c r="I32" t="n">
         <v>136.685125759028</v>
@@ -24965,16 +24965,16 @@
         <v>29.63673178547965</v>
       </c>
       <c r="S32" t="n">
-        <v>165.4040387101212</v>
+        <v>66.65520767208854</v>
       </c>
       <c r="T32" t="n">
         <v>214.717169359623</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1925302541847</v>
+        <v>139.0798701292611</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>215.6395983452113</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24993,10 +24993,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>54.42052352494372</v>
       </c>
       <c r="C33" t="n">
-        <v>60.59583886339209</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25011,7 +25011,7 @@
         <v>136.3194191323308</v>
       </c>
       <c r="H33" t="n">
-        <v>102.3448132540521</v>
+        <v>3.595982216019436</v>
       </c>
       <c r="I33" t="n">
         <v>54.13711731454486</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>36.57392307749219</v>
       </c>
       <c r="S33" t="n">
         <v>152.6609993460486</v>
@@ -25050,13 +25050,13 @@
         <v>196.0368949650912</v>
       </c>
       <c r="U33" t="n">
-        <v>163.6990992499816</v>
+        <v>113.7613470855986</v>
       </c>
       <c r="V33" t="n">
         <v>120.6879270245016</v>
       </c>
       <c r="W33" t="n">
-        <v>139.582323035996</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>55.01974984612798</v>
+        <v>167.1324099710516</v>
       </c>
       <c r="H34" t="n">
         <v>154.5937101357652</v>
@@ -25120,13 +25120,13 @@
         <v>14.26856482072056</v>
       </c>
       <c r="R34" t="n">
-        <v>39.9401586108123</v>
+        <v>138.6889896488451</v>
       </c>
       <c r="S34" t="n">
         <v>209.0540751673406</v>
       </c>
       <c r="T34" t="n">
-        <v>112.1644964662546</v>
+        <v>125.5283255531456</v>
       </c>
       <c r="U34" t="n">
         <v>286.2721982989959</v>
@@ -25135,10 +25135,10 @@
         <v>140.0249831989044</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>174.4103382116674</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>113.5969952641135</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25154,7 +25154,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>253.1602316460838</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25166,13 +25166,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>301.2760442195641</v>
+        <v>413.3887043444878</v>
       </c>
       <c r="H35" t="n">
-        <v>207.7600497819524</v>
+        <v>319.8727099068761</v>
       </c>
       <c r="I35" t="n">
-        <v>136.685125759028</v>
+        <v>67.5730265064749</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,13 +25199,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>29.63673178547965</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>165.4040387101212</v>
       </c>
       <c r="T35" t="n">
-        <v>214.717169359623</v>
+        <v>102.6045092346993</v>
       </c>
       <c r="U35" t="n">
         <v>251.1925302541847</v>
@@ -25214,13 +25214,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>250.4921376793803</v>
+        <v>237.1283085924893</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>274.1252785311299</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>67.78435261183459</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25284,22 +25284,22 @@
         <v>152.6609993460486</v>
       </c>
       <c r="T36" t="n">
-        <v>196.0368949650912</v>
+        <v>83.9242348401675</v>
       </c>
       <c r="U36" t="n">
-        <v>113.7613470855985</v>
+        <v>127.1251761724894</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>120.6879270245016</v>
       </c>
       <c r="W36" t="n">
-        <v>139.582323035996</v>
+        <v>139.5823230359959</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>93.57003565238071</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>67.7193200570136</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>68.49799006059509</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>36.50281289328866</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25354,25 +25354,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>14.26856482072056</v>
       </c>
       <c r="R37" t="n">
         <v>138.6889896488451</v>
       </c>
       <c r="S37" t="n">
-        <v>96.94141504241699</v>
+        <v>209.0540751673406</v>
       </c>
       <c r="T37" t="n">
-        <v>112.1644964662546</v>
+        <v>224.2771565911783</v>
       </c>
       <c r="U37" t="n">
         <v>286.2721982989959</v>
       </c>
       <c r="V37" t="n">
-        <v>140.0249831989044</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>202.0427321192788</v>
+        <v>174.4103382116673</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25397,13 +25397,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>269.8177099473381</v>
+        <v>283.181539034229</v>
       </c>
       <c r="F38" t="n">
-        <v>294.7633856167877</v>
+        <v>294.7633856167878</v>
       </c>
       <c r="G38" t="n">
-        <v>413.3887043444878</v>
+        <v>301.2760442195641</v>
       </c>
       <c r="H38" t="n">
         <v>319.8727099068761</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>287.4891076180209</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25470,7 +25470,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>60.59583886339205</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25515,25 +25515,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>36.57392307749219</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>152.6609993460486</v>
       </c>
       <c r="T39" t="n">
-        <v>196.0368949650912</v>
+        <v>83.92423484016754</v>
       </c>
       <c r="U39" t="n">
-        <v>127.1251761724894</v>
+        <v>225.8740072105222</v>
       </c>
       <c r="V39" t="n">
         <v>120.6879270245016</v>
       </c>
       <c r="W39" t="n">
-        <v>139.5823230359959</v>
+        <v>139.582323035996</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>143.5980772429369</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25552,10 +25552,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>36.50281289328866</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>34.32130252164548</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25567,7 +25567,7 @@
         <v>154.5937101357652</v>
       </c>
       <c r="I40" t="n">
-        <v>17.51829177012728</v>
+        <v>129.630951895051</v>
       </c>
       <c r="J40" t="n">
         <v>32.65832442698833</v>
@@ -25591,10 +25591,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>14.26856482072056</v>
       </c>
       <c r="R40" t="n">
-        <v>54.20872343153285</v>
+        <v>138.6889896488451</v>
       </c>
       <c r="S40" t="n">
         <v>209.0540751673406</v>
@@ -25603,16 +25603,16 @@
         <v>224.2771565911783</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2721982989959</v>
+        <v>174.1595381740723</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>153.3888122857953</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>174.4103382116674</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>113.5969952641135</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,16 +25625,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>270.6211815385569</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>253.1602316460839</v>
       </c>
       <c r="D41" t="n">
         <v>242.5703814957593</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>283.181539034229</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25685,7 +25685,7 @@
         <v>251.1925302541847</v>
       </c>
       <c r="V41" t="n">
-        <v>229.0034274321022</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25704,19 +25704,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>54.4205235249437</v>
+        <v>54.42052352494369</v>
       </c>
       <c r="C42" t="n">
-        <v>60.5958388633921</v>
+        <v>60.59583886339209</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>48.69623452660601</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>82.89430443284337</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>136.3194191323308</v>
@@ -25752,16 +25752,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>36.57392307749219</v>
       </c>
       <c r="S42" t="n">
         <v>152.6609993460486</v>
       </c>
       <c r="T42" t="n">
-        <v>83.92423484016756</v>
+        <v>196.0368949650912</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8740072105222</v>
+        <v>113.7613470855985</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25789,7 +25789,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>64.13520680090015</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>55.01974984612799</v>
+        <v>167.1324099710516</v>
       </c>
       <c r="H43" t="n">
-        <v>42.4810500108416</v>
+        <v>154.5937101357652</v>
       </c>
       <c r="I43" t="n">
         <v>129.630951895051</v>
@@ -25831,25 +25831,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.57632952392142</v>
+        <v>138.6889896488451</v>
       </c>
       <c r="S43" t="n">
-        <v>124.5738089500285</v>
+        <v>209.0540751673406</v>
       </c>
       <c r="T43" t="n">
         <v>224.2771565911783</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2721982989959</v>
+        <v>174.1595381740723</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>140.0249831989044</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>113.5969952641135</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25871,19 +25871,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>269.8177099473381</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>294.7633856167878</v>
       </c>
       <c r="G44" t="n">
-        <v>301.2760442195641</v>
+        <v>413.3887043444878</v>
       </c>
       <c r="H44" t="n">
         <v>319.8727099068761</v>
       </c>
       <c r="I44" t="n">
-        <v>136.685125759028</v>
+        <v>67.5730265064749</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,13 +25922,13 @@
         <v>251.1925302541847</v>
       </c>
       <c r="V44" t="n">
-        <v>215.6395983452113</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>237.1283085924894</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>300.619001425916</v>
+        <v>257.6184405535454</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25989,16 +25989,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>36.57392307749219</v>
       </c>
       <c r="S45" t="n">
         <v>152.6609993460486</v>
       </c>
       <c r="T45" t="n">
-        <v>196.0368949650912</v>
+        <v>97.28806392705845</v>
       </c>
       <c r="U45" t="n">
-        <v>113.7613470855986</v>
+        <v>113.7613470855985</v>
       </c>
       <c r="V45" t="n">
         <v>120.6879270245016</v>
@@ -26007,7 +26007,7 @@
         <v>139.582323035996</v>
       </c>
       <c r="X45" t="n">
-        <v>143.598077242937</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26029,13 +26029,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>34.32130252164552</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.1324099710516</v>
+        <v>55.01974984612798</v>
       </c>
       <c r="H46" t="n">
         <v>154.5937101357652</v>
@@ -26074,19 +26074,19 @@
         <v>209.0540751673406</v>
       </c>
       <c r="T46" t="n">
-        <v>125.5283255531456</v>
+        <v>125.5283255531455</v>
       </c>
       <c r="U46" t="n">
-        <v>174.1595381740723</v>
+        <v>286.2721982989959</v>
       </c>
       <c r="V46" t="n">
-        <v>140.0249831989044</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>174.4103382116674</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>113.5969952641135</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>345433.2109878905</v>
+        <v>345427.7762264305</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>440201.7719621125</v>
+        <v>440201.7719621126</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>440201.7719621125</v>
+        <v>440201.7719621126</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>440201.7719621125</v>
+        <v>440201.7719621126</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>440201.7719621127</v>
+        <v>440201.7719621125</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>440201.7719621126</v>
+        <v>440201.7719621125</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>440201.7719621126</v>
+        <v>440201.7719621125</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>440201.7719621126</v>
+        <v>440201.7719621125</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>440201.7719621125</v>
+        <v>440201.7719621124</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>440201.7719621126</v>
+        <v>440201.7719621125</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89827.21278627058</v>
+        <v>89830.6957673596</v>
       </c>
       <c r="C2" t="n">
         <v>89830.6957673596</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>314312.6682228162</v>
+        <v>314444.4864346</v>
       </c>
       <c r="C3" t="n">
-        <v>124.5665295992735</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>153822.1535344118</v>
+        <v>153822.1535344117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15917.1944943672</v>
+        <v>16048.55841277817</v>
       </c>
       <c r="C4" t="n">
-        <v>15899.1582836852</v>
+        <v>16048.55841277817</v>
       </c>
       <c r="D4" t="n">
-        <v>15899.1582836852</v>
+        <v>16048.55841277817</v>
       </c>
       <c r="E4" t="n">
-        <v>9502.97149537308</v>
+        <v>9591.354833804326</v>
       </c>
       <c r="F4" t="n">
-        <v>9502.971495373078</v>
+        <v>9591.354833804326</v>
       </c>
       <c r="G4" t="n">
-        <v>9502.971495373078</v>
+        <v>9591.354833804326</v>
       </c>
       <c r="H4" t="n">
-        <v>9502.97149537308</v>
+        <v>9591.354833804322</v>
       </c>
       <c r="I4" t="n">
-        <v>9502.97149537308</v>
+        <v>9591.354833804324</v>
       </c>
       <c r="J4" t="n">
-        <v>9502.97149537308</v>
+        <v>9591.354833804322</v>
       </c>
       <c r="K4" t="n">
-        <v>9502.97149537308</v>
+        <v>9591.354833804322</v>
       </c>
       <c r="L4" t="n">
-        <v>9502.971495373076</v>
+        <v>9591.354833804322</v>
       </c>
       <c r="M4" t="n">
-        <v>9502.971495373076</v>
+        <v>9591.354833804326</v>
       </c>
       <c r="N4" t="n">
-        <v>9502.971495373078</v>
+        <v>9591.354833804322</v>
       </c>
       <c r="O4" t="n">
-        <v>9502.971495373078</v>
+        <v>9591.354833804322</v>
       </c>
       <c r="P4" t="n">
-        <v>9502.971495373076</v>
+        <v>9591.354833804322</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40738.35521735115</v>
+        <v>40741.33736580378</v>
       </c>
       <c r="C5" t="n">
         <v>40741.33736580378</v>
@@ -26476,34 +26476,34 @@
         <v>40741.33736580378</v>
       </c>
       <c r="E5" t="n">
-        <v>17195.77311172271</v>
+        <v>17195.7731117227</v>
       </c>
       <c r="F5" t="n">
-        <v>17195.77311172271</v>
+        <v>17195.7731117227</v>
       </c>
       <c r="G5" t="n">
         <v>17195.77311172271</v>
       </c>
       <c r="H5" t="n">
-        <v>17195.77311172271</v>
+        <v>17195.7731117227</v>
       </c>
       <c r="I5" t="n">
-        <v>17195.77311172271</v>
+        <v>17195.7731117227</v>
       </c>
       <c r="J5" t="n">
-        <v>17195.77311172271</v>
+        <v>17195.7731117227</v>
       </c>
       <c r="K5" t="n">
-        <v>17195.77311172271</v>
+        <v>17195.7731117227</v>
       </c>
       <c r="L5" t="n">
         <v>17195.7731117227</v>
       </c>
       <c r="M5" t="n">
+        <v>17195.77311172271</v>
+      </c>
+      <c r="N5" t="n">
         <v>17195.7731117227</v>
-      </c>
-      <c r="N5" t="n">
-        <v>17195.77311172271</v>
       </c>
       <c r="O5" t="n">
         <v>17195.7731117227</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-281141.0051482639</v>
+        <v>-281403.6864458223</v>
       </c>
       <c r="C6" t="n">
-        <v>33065.63358827134</v>
+        <v>33040.79998877765</v>
       </c>
       <c r="D6" t="n">
-        <v>33190.20011787062</v>
+        <v>33040.79998877765</v>
       </c>
       <c r="E6" t="n">
-        <v>-63055.17928930677</v>
+        <v>-63143.56262773798</v>
       </c>
       <c r="F6" t="n">
-        <v>90766.97424510501</v>
+        <v>90678.59090667377</v>
       </c>
       <c r="G6" t="n">
-        <v>90766.97424510504</v>
+        <v>90678.59090667379</v>
       </c>
       <c r="H6" t="n">
-        <v>90766.97424510501</v>
+        <v>90678.59090667379</v>
       </c>
       <c r="I6" t="n">
-        <v>90766.97424510498</v>
+        <v>90678.59090667377</v>
       </c>
       <c r="J6" t="n">
-        <v>90766.97424510501</v>
+        <v>90678.59090667379</v>
       </c>
       <c r="K6" t="n">
-        <v>90766.97424510501</v>
+        <v>90678.59090667378</v>
       </c>
       <c r="L6" t="n">
-        <v>90766.974245105</v>
+        <v>90678.59090667379</v>
       </c>
       <c r="M6" t="n">
-        <v>62828.05089133351</v>
+        <v>62739.66755290229</v>
       </c>
       <c r="N6" t="n">
-        <v>90766.97424510504</v>
+        <v>90678.59090667379</v>
       </c>
       <c r="O6" t="n">
-        <v>90766.97424510503</v>
+        <v>90678.59090667381</v>
       </c>
       <c r="P6" t="n">
-        <v>90766.97424510503</v>
+        <v>90678.59090667378</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>326.1814319885848</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="C3" t="n">
         <v>326.3182277891643</v>
@@ -26747,10 +26747,10 @@
         <v>476.1157511985022</v>
       </c>
       <c r="F3" t="n">
-        <v>476.1157511985023</v>
+        <v>476.1157511985022</v>
       </c>
       <c r="G3" t="n">
-        <v>476.1157511985023</v>
+        <v>476.1157511985022</v>
       </c>
       <c r="H3" t="n">
         <v>476.1157511985022</v>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>112.1126601249237</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="F4" t="n">
         <v>112.1126601249237</v>
@@ -26817,7 +26817,7 @@
         <v>112.1126601249237</v>
       </c>
       <c r="L4" t="n">
-        <v>112.1126601249237</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="M4" t="n">
         <v>112.1126601249237</v>
@@ -26826,10 +26826,10 @@
         <v>112.1126601249237</v>
       </c>
       <c r="O4" t="n">
-        <v>112.1126601249236</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="P4" t="n">
-        <v>112.1126601249236</v>
+        <v>112.1126601249237</v>
       </c>
     </row>
   </sheetData>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>326.1814319885848</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1367958005794776</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>112.1126601249237</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>112.1126601249237</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.311282138647576</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H2" t="n">
-        <v>13.42916820242449</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I2" t="n">
-        <v>50.55320465021072</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J2" t="n">
-        <v>111.2934324150398</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K2" t="n">
-        <v>166.8000053439917</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L2" t="n">
-        <v>206.9301560946275</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M2" t="n">
-        <v>230.2496698278014</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>220.9362884380569</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P2" t="n">
-        <v>188.5640106401949</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q2" t="n">
-        <v>141.6037190498785</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R2" t="n">
-        <v>82.36982664182088</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S2" t="n">
-        <v>29.88084173443167</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T2" t="n">
-        <v>5.740137561929767</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.701597797107522</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H3" t="n">
-        <v>6.775957672064753</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I3" t="n">
-        <v>24.15588906707916</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J3" t="n">
-        <v>66.28560591005761</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K3" t="n">
-        <v>113.2926583162616</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -31148,19 +31148,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>89.55834336411107</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R3" t="n">
-        <v>43.56060708707933</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S3" t="n">
-        <v>13.03187136294015</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T3" t="n">
-        <v>2.827931471674616</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H4" t="n">
-        <v>5.229597384997313</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I4" t="n">
-        <v>17.68865863964326</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J4" t="n">
-        <v>41.58545896024957</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K4" t="n">
-        <v>68.33768361990347</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L4" t="n">
-        <v>87.44870719248058</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M4" t="n">
-        <v>92.20240052096993</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N4" t="n">
-        <v>90.01003351907953</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O4" t="n">
-        <v>83.13883450095931</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P4" t="n">
-        <v>71.13963559305131</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.2533962302763</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R4" t="n">
-        <v>26.44743217402524</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S4" t="n">
-        <v>10.25065254298552</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T4" t="n">
-        <v>2.513201197289095</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31519,7 +31519,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I8" t="n">
-        <v>50.5744059370523</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J8" t="n">
         <v>111.3401072796808</v>
@@ -31546,7 +31546,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R8" t="n">
-        <v>82.40437136225566</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S8" t="n">
         <v>29.89337332963048</v>
@@ -31592,7 +31592,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.70189203713141</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H9" t="n">
         <v>6.778799411242828</v>
@@ -31625,7 +31625,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R9" t="n">
-        <v>43.57887577908879</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S9" t="n">
         <v>13.03733674233122</v>
@@ -31674,7 +31674,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H10" t="n">
-        <v>5.231790602914802</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I10" t="n">
         <v>17.69607700863206</v>
@@ -31686,10 +31686,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L10" t="n">
-        <v>87.48538192236055</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M10" t="n">
-        <v>92.24106888145178</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N10" t="n">
         <v>90.04778243237713</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.914033170647244</v>
+        <v>1.914033170647243</v>
       </c>
       <c r="H11" t="n">
         <v>19.60209220889109</v>
@@ -31765,34 +31765,34 @@
         <v>243.4721969307195</v>
       </c>
       <c r="L11" t="n">
-        <v>302.0487895769152</v>
+        <v>302.0487895769151</v>
       </c>
       <c r="M11" t="n">
         <v>336.087476975413</v>
       </c>
       <c r="N11" t="n">
-        <v>341.5257237215146</v>
+        <v>341.5257237215145</v>
       </c>
       <c r="O11" t="n">
         <v>322.493056380891</v>
       </c>
       <c r="P11" t="n">
-        <v>275.2403624805372</v>
+        <v>275.2403624805371</v>
       </c>
       <c r="Q11" t="n">
-        <v>206.6940495567327</v>
+        <v>206.6940495567326</v>
       </c>
       <c r="R11" t="n">
         <v>120.23238615567</v>
       </c>
       <c r="S11" t="n">
-        <v>43.61603087612411</v>
+        <v>43.6160308761241</v>
       </c>
       <c r="T11" t="n">
-        <v>8.378680204508314</v>
+        <v>8.378680204508312</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1531226536517795</v>
+        <v>0.1531226536517794</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,25 +31835,25 @@
         <v>9.890630982444359</v>
       </c>
       <c r="I12" t="n">
-        <v>35.25951553687022</v>
+        <v>35.25951553687021</v>
       </c>
       <c r="J12" t="n">
-        <v>96.75480562798998</v>
+        <v>96.75480562798997</v>
       </c>
       <c r="K12" t="n">
-        <v>165.3693736969364</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>222.3595307837911</v>
+        <v>195.6037669583861</v>
       </c>
       <c r="M12" t="n">
         <v>254.246694046942</v>
       </c>
       <c r="N12" t="n">
-        <v>243.454372208257</v>
+        <v>243.4543722082569</v>
       </c>
       <c r="O12" t="n">
-        <v>189.3752746148964</v>
+        <v>243.6589731628787</v>
       </c>
       <c r="P12" t="n">
         <v>195.5578073177395</v>
@@ -31868,10 +31868,10 @@
         <v>19.0221717577892</v>
       </c>
       <c r="T12" t="n">
-        <v>4.127833729730409</v>
+        <v>4.127833729730408</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06737487045261827</v>
+        <v>0.06737487045261825</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,7 +31908,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8585693874071351</v>
+        <v>0.858569387407135</v>
       </c>
       <c r="H13" t="n">
         <v>7.633462371674351</v>
@@ -31917,10 +31917,10 @@
         <v>25.8195230322073</v>
       </c>
       <c r="J13" t="n">
-        <v>60.70085568968445</v>
+        <v>60.70085568968444</v>
       </c>
       <c r="K13" t="n">
-        <v>99.75015246421076</v>
+        <v>99.75015246421074</v>
       </c>
       <c r="L13" t="n">
         <v>127.6458523786935</v>
@@ -31941,7 +31941,7 @@
         <v>71.89347843097383</v>
       </c>
       <c r="R13" t="n">
-        <v>38.60440172832445</v>
+        <v>38.60440172832444</v>
       </c>
       <c r="S13" t="n">
         <v>14.96252286963161</v>
@@ -31987,13 +31987,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.914033170647244</v>
+        <v>1.914033170647243</v>
       </c>
       <c r="H14" t="n">
         <v>19.60209220889109</v>
       </c>
       <c r="I14" t="n">
-        <v>73.79076381137794</v>
+        <v>73.79076381137793</v>
       </c>
       <c r="J14" t="n">
         <v>162.4511728172216</v>
@@ -32002,34 +32002,34 @@
         <v>243.4721969307195</v>
       </c>
       <c r="L14" t="n">
-        <v>302.0487895769152</v>
+        <v>302.0487895769151</v>
       </c>
       <c r="M14" t="n">
-        <v>336.0874769754131</v>
+        <v>336.087476975413</v>
       </c>
       <c r="N14" t="n">
-        <v>341.5257237215146</v>
+        <v>341.5257237215145</v>
       </c>
       <c r="O14" t="n">
-        <v>322.4930563808911</v>
+        <v>322.493056380891</v>
       </c>
       <c r="P14" t="n">
-        <v>275.2403624805372</v>
+        <v>275.2403624805371</v>
       </c>
       <c r="Q14" t="n">
-        <v>206.6940495567327</v>
+        <v>206.6940495567326</v>
       </c>
       <c r="R14" t="n">
         <v>120.23238615567</v>
       </c>
       <c r="S14" t="n">
-        <v>43.61603087612411</v>
+        <v>43.6160308761241</v>
       </c>
       <c r="T14" t="n">
-        <v>8.378680204508314</v>
+        <v>8.378680204508312</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1531226536517795</v>
+        <v>0.1531226536517794</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,13 +32069,13 @@
         <v>1.024098030879797</v>
       </c>
       <c r="H15" t="n">
-        <v>9.89063098244436</v>
+        <v>9.890630982444359</v>
       </c>
       <c r="I15" t="n">
-        <v>35.25951553687022</v>
+        <v>35.25951553687021</v>
       </c>
       <c r="J15" t="n">
-        <v>96.75480562799</v>
+        <v>96.75480562798997</v>
       </c>
       <c r="K15" t="n">
         <v>165.3693736969364</v>
@@ -32087,28 +32087,28 @@
         <v>254.246694046942</v>
       </c>
       <c r="N15" t="n">
-        <v>189.1706736602746</v>
+        <v>189.1706736602745</v>
       </c>
       <c r="O15" t="n">
-        <v>243.6589731628788</v>
+        <v>243.6589731628787</v>
       </c>
       <c r="P15" t="n">
-        <v>195.5578073177396</v>
+        <v>195.5578073177395</v>
       </c>
       <c r="Q15" t="n">
         <v>130.7252153102001</v>
       </c>
       <c r="R15" t="n">
-        <v>63.58391107515095</v>
+        <v>63.58391107515094</v>
       </c>
       <c r="S15" t="n">
-        <v>19.02217175778921</v>
+        <v>19.0221717577892</v>
       </c>
       <c r="T15" t="n">
-        <v>4.127833729730409</v>
+        <v>4.127833729730408</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06737487045261828</v>
+        <v>0.06737487045261825</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8585693874071352</v>
+        <v>0.858569387407135</v>
       </c>
       <c r="H16" t="n">
-        <v>7.633462371674352</v>
+        <v>7.633462371674351</v>
       </c>
       <c r="I16" t="n">
-        <v>25.81952303220731</v>
+        <v>25.8195230322073</v>
       </c>
       <c r="J16" t="n">
-        <v>60.70085568968445</v>
+        <v>60.70085568968444</v>
       </c>
       <c r="K16" t="n">
-        <v>99.75015246421077</v>
+        <v>99.75015246421074</v>
       </c>
       <c r="L16" t="n">
         <v>127.6458523786935</v>
@@ -32175,19 +32175,19 @@
         <v>103.8400648187684</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.89347843097384</v>
+        <v>71.89347843097383</v>
       </c>
       <c r="R16" t="n">
-        <v>38.60440172832445</v>
+        <v>38.60440172832444</v>
       </c>
       <c r="S16" t="n">
         <v>14.96252286963161</v>
       </c>
       <c r="T16" t="n">
-        <v>3.668432837103213</v>
+        <v>3.668432837103212</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0468310574949347</v>
+        <v>0.04683105749493469</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,25 +32230,25 @@
         <v>19.60209220889109</v>
       </c>
       <c r="I17" t="n">
-        <v>73.79076381137794</v>
+        <v>73.79076381137793</v>
       </c>
       <c r="J17" t="n">
         <v>162.4511728172216</v>
       </c>
       <c r="K17" t="n">
-        <v>243.4721969307196</v>
+        <v>243.4721969307195</v>
       </c>
       <c r="L17" t="n">
         <v>302.0487895769152</v>
       </c>
       <c r="M17" t="n">
-        <v>336.0874769754131</v>
+        <v>336.087476975413</v>
       </c>
       <c r="N17" t="n">
         <v>341.5257237215146</v>
       </c>
       <c r="O17" t="n">
-        <v>322.4930563808911</v>
+        <v>322.493056380891</v>
       </c>
       <c r="P17" t="n">
         <v>275.2403624805372</v>
@@ -32306,16 +32306,16 @@
         <v>1.024098030879797</v>
       </c>
       <c r="H18" t="n">
-        <v>9.89063098244436</v>
+        <v>9.890630982444359</v>
       </c>
       <c r="I18" t="n">
         <v>35.25951553687022</v>
       </c>
       <c r="J18" t="n">
-        <v>96.75480562799</v>
+        <v>96.75480562798998</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>165.3693736969364</v>
       </c>
       <c r="L18" t="n">
         <v>222.3595307837911</v>
@@ -32324,28 +32324,28 @@
         <v>254.246694046942</v>
       </c>
       <c r="N18" t="n">
-        <v>243.454372208257</v>
+        <v>189.1706736602746</v>
       </c>
       <c r="O18" t="n">
         <v>243.6589731628788</v>
       </c>
       <c r="P18" t="n">
-        <v>168.8020434923345</v>
+        <v>195.5578073177395</v>
       </c>
       <c r="Q18" t="n">
         <v>130.7252153102001</v>
       </c>
       <c r="R18" t="n">
-        <v>63.58391107515095</v>
+        <v>63.58391107515094</v>
       </c>
       <c r="S18" t="n">
-        <v>19.02217175778921</v>
+        <v>19.0221717577892</v>
       </c>
       <c r="T18" t="n">
         <v>4.127833729730409</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06737487045261828</v>
+        <v>0.06737487045261827</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8585693874071352</v>
+        <v>0.8585693874071351</v>
       </c>
       <c r="H19" t="n">
-        <v>7.633462371674352</v>
+        <v>7.633462371674351</v>
       </c>
       <c r="I19" t="n">
-        <v>25.81952303220731</v>
+        <v>25.8195230322073</v>
       </c>
       <c r="J19" t="n">
         <v>60.70085568968445</v>
       </c>
       <c r="K19" t="n">
-        <v>99.75015246421077</v>
+        <v>99.75015246421076</v>
       </c>
       <c r="L19" t="n">
         <v>127.6458523786935</v>
@@ -32412,7 +32412,7 @@
         <v>103.8400648187684</v>
       </c>
       <c r="Q19" t="n">
-        <v>71.89347843097384</v>
+        <v>71.89347843097383</v>
       </c>
       <c r="R19" t="n">
         <v>38.60440172832445</v>
@@ -32421,10 +32421,10 @@
         <v>14.96252286963161</v>
       </c>
       <c r="T19" t="n">
-        <v>3.668432837103213</v>
+        <v>3.668432837103212</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0468310574949347</v>
+        <v>0.04683105749493469</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32561,13 +32561,13 @@
         <v>254.246694046942</v>
       </c>
       <c r="N21" t="n">
-        <v>243.454372208257</v>
+        <v>189.1706736602745</v>
       </c>
       <c r="O21" t="n">
         <v>243.6589731628788</v>
       </c>
       <c r="P21" t="n">
-        <v>141.2741087697572</v>
+        <v>195.5578073177395</v>
       </c>
       <c r="Q21" t="n">
         <v>130.7252153102001</v>
@@ -32789,7 +32789,7 @@
         <v>96.75480562798998</v>
       </c>
       <c r="K24" t="n">
-        <v>165.3693736969364</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>222.3595307837911</v>
@@ -32804,7 +32804,7 @@
         <v>243.6589731628788</v>
       </c>
       <c r="P24" t="n">
-        <v>141.2741087697572</v>
+        <v>168.8020434923344</v>
       </c>
       <c r="Q24" t="n">
         <v>130.7252153102001</v>
@@ -33038,7 +33038,7 @@
         <v>243.454372208257</v>
       </c>
       <c r="O27" t="n">
-        <v>189.3752746148964</v>
+        <v>189.3752746148963</v>
       </c>
       <c r="P27" t="n">
         <v>195.5578073177395</v>
@@ -33266,10 +33266,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>222.3595307837911</v>
+        <v>195.603766958386</v>
       </c>
       <c r="M30" t="n">
-        <v>227.490930221537</v>
+        <v>254.246694046942</v>
       </c>
       <c r="N30" t="n">
         <v>243.454372208257</v>
@@ -33500,22 +33500,22 @@
         <v>96.75480562798998</v>
       </c>
       <c r="K33" t="n">
-        <v>165.3693736969364</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>222.3595307837911</v>
       </c>
       <c r="M33" t="n">
-        <v>199.9629954989595</v>
+        <v>254.2466940469419</v>
       </c>
       <c r="N33" t="n">
-        <v>243.454372208257</v>
+        <v>243.4543722082569</v>
       </c>
       <c r="O33" t="n">
         <v>243.6589731628788</v>
       </c>
       <c r="P33" t="n">
-        <v>195.5578073177395</v>
+        <v>168.8020434923344</v>
       </c>
       <c r="Q33" t="n">
         <v>130.7252153102001</v>
@@ -33743,10 +33743,10 @@
         <v>222.3595307837911</v>
       </c>
       <c r="M36" t="n">
-        <v>199.9629954989595</v>
+        <v>254.246694046942</v>
       </c>
       <c r="N36" t="n">
-        <v>243.454372208257</v>
+        <v>189.1706736602746</v>
       </c>
       <c r="O36" t="n">
         <v>243.6589731628788</v>
@@ -33901,7 +33901,7 @@
         <v>302.0487895769152</v>
       </c>
       <c r="M38" t="n">
-        <v>336.087476975413</v>
+        <v>336.0874769754131</v>
       </c>
       <c r="N38" t="n">
         <v>341.5257237215146</v>
@@ -33983,7 +33983,7 @@
         <v>254.246694046942</v>
       </c>
       <c r="N39" t="n">
-        <v>189.1706736602746</v>
+        <v>189.1706736602745</v>
       </c>
       <c r="O39" t="n">
         <v>243.6589731628788</v>
@@ -34220,13 +34220,13 @@
         <v>254.246694046942</v>
       </c>
       <c r="N42" t="n">
-        <v>243.4543722082569</v>
+        <v>189.1706736602745</v>
       </c>
       <c r="O42" t="n">
         <v>243.6589731628788</v>
       </c>
       <c r="P42" t="n">
-        <v>141.2741087697571</v>
+        <v>195.5578073177395</v>
       </c>
       <c r="Q42" t="n">
         <v>130.7252153102001</v>
@@ -34369,7 +34369,7 @@
         <v>162.4511728172216</v>
       </c>
       <c r="K44" t="n">
-        <v>243.4721969307195</v>
+        <v>243.4721969307196</v>
       </c>
       <c r="L44" t="n">
         <v>302.0487895769152</v>
@@ -34378,7 +34378,7 @@
         <v>336.087476975413</v>
       </c>
       <c r="N44" t="n">
-        <v>341.5257237215145</v>
+        <v>341.5257237215146</v>
       </c>
       <c r="O44" t="n">
         <v>322.493056380891</v>
@@ -34451,13 +34451,13 @@
         <v>165.3693736969364</v>
       </c>
       <c r="L45" t="n">
-        <v>222.3595307837911</v>
+        <v>168.0758322358086</v>
       </c>
       <c r="M45" t="n">
         <v>254.246694046942</v>
       </c>
       <c r="N45" t="n">
-        <v>189.1706736602745</v>
+        <v>243.454372208257</v>
       </c>
       <c r="O45" t="n">
         <v>243.6589731628788</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>23.38234588573897</v>
+        <v>23.38234588573894</v>
       </c>
       <c r="L11" t="n">
-        <v>66.28237460692793</v>
+        <v>66.28237460692787</v>
       </c>
       <c r="M11" t="n">
         <v>105.7412437481403</v>
       </c>
       <c r="N11" t="n">
-        <v>112.1126601249237</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="O11" t="n">
         <v>92.39484495920428</v>
       </c>
       <c r="P11" t="n">
-        <v>44.00736672526762</v>
+        <v>44.00736672526756</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>27.52793472257738</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>83.8051510039169</v>
+        <v>57.04938717851189</v>
       </c>
       <c r="M12" t="n">
-        <v>112.1126601249237</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="N12" t="n">
-        <v>112.1126601249237</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="O12" t="n">
-        <v>46.77903017045198</v>
+        <v>101.0627287184343</v>
       </c>
       <c r="P12" t="n">
         <v>61.58339990340929</v>
@@ -35568,22 +35568,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>6.464231591770023</v>
+        <v>77.48066063832789</v>
       </c>
       <c r="L13" t="n">
-        <v>112.1126601249237</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>112.1126601249237</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="O13" t="n">
-        <v>112.1126601249237</v>
+        <v>41.0962310783657</v>
       </c>
       <c r="P13" t="n">
-        <v>101.1186240836619</v>
+        <v>101.1186240836618</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>23.382345885739</v>
+        <v>23.38234588573894</v>
       </c>
       <c r="L14" t="n">
-        <v>66.28237460692793</v>
+        <v>66.28237460692787</v>
       </c>
       <c r="M14" t="n">
-        <v>105.7412437481404</v>
+        <v>105.7412437481403</v>
       </c>
       <c r="N14" t="n">
-        <v>112.1126601249237</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="O14" t="n">
-        <v>92.39484495920433</v>
+        <v>92.39484495920428</v>
       </c>
       <c r="P14" t="n">
-        <v>44.00736672526762</v>
+        <v>44.00736672526756</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>27.52793472257741</v>
+        <v>27.52793472257738</v>
       </c>
       <c r="L15" t="n">
-        <v>83.80515100391693</v>
+        <v>83.80515100391688</v>
       </c>
       <c r="M15" t="n">
         <v>112.1126601249237</v>
       </c>
       <c r="N15" t="n">
-        <v>57.8289615769413</v>
+        <v>57.82896157694122</v>
       </c>
       <c r="O15" t="n">
-        <v>101.0627287184344</v>
+        <v>101.0627287184343</v>
       </c>
       <c r="P15" t="n">
-        <v>61.58339990340932</v>
+        <v>61.58339990340929</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35805,22 +35805,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>77.48066063832789</v>
       </c>
       <c r="L16" t="n">
         <v>112.1126601249237</v>
       </c>
       <c r="M16" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>112.1126601249237</v>
       </c>
       <c r="O16" t="n">
-        <v>107.5828556754319</v>
+        <v>41.09623107836576</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>101.1186240836618</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35884,19 +35884,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>23.38234588573902</v>
+        <v>23.38234588573897</v>
       </c>
       <c r="L17" t="n">
         <v>66.28237460692793</v>
       </c>
       <c r="M17" t="n">
-        <v>105.7412437481404</v>
+        <v>105.7412437481403</v>
       </c>
       <c r="N17" t="n">
         <v>112.1126601249237</v>
       </c>
       <c r="O17" t="n">
-        <v>92.39484495920433</v>
+        <v>92.39484495920428</v>
       </c>
       <c r="P17" t="n">
         <v>44.00736672526762</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>27.52793472257738</v>
       </c>
       <c r="L18" t="n">
-        <v>83.80515100391693</v>
+        <v>83.8051510039169</v>
       </c>
       <c r="M18" t="n">
         <v>112.1126601249237</v>
       </c>
       <c r="N18" t="n">
-        <v>112.1126601249237</v>
+        <v>57.82896157694133</v>
       </c>
       <c r="O18" t="n">
-        <v>101.0627287184344</v>
+        <v>101.0627287184343</v>
       </c>
       <c r="P18" t="n">
-        <v>34.82763607800431</v>
+        <v>61.58339990340929</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>77.48066063832792</v>
+        <v>77.4806606383279</v>
       </c>
       <c r="L19" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>112.1126601249237</v>
       </c>
       <c r="N19" t="n">
+        <v>41.09623107836582</v>
+      </c>
+      <c r="O19" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
       <c r="P19" t="n">
-        <v>30.10219503710393</v>
+        <v>101.1186240836619</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36209,13 +36209,13 @@
         <v>112.1126601249237</v>
       </c>
       <c r="N21" t="n">
-        <v>112.1126601249237</v>
+        <v>57.82896157694119</v>
       </c>
       <c r="O21" t="n">
         <v>101.0627287184343</v>
       </c>
       <c r="P21" t="n">
-        <v>7.299701355426945</v>
+        <v>61.58339990340929</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36279,13 +36279,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>77.4806606383279</v>
       </c>
       <c r="L22" t="n">
-        <v>6.464231591770023</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="M22" t="n">
-        <v>112.1126601249237</v>
+        <v>30.10219503710387</v>
       </c>
       <c r="N22" t="n">
         <v>112.1126601249237</v>
@@ -36294,7 +36294,7 @@
         <v>112.1126601249237</v>
       </c>
       <c r="P22" t="n">
-        <v>101.1186240836619</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>27.52793472257738</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>83.8051510039169</v>
@@ -36452,7 +36452,7 @@
         <v>101.0627287184343</v>
       </c>
       <c r="P24" t="n">
-        <v>7.299701355426945</v>
+        <v>34.8276360780042</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>77.4806606383279</v>
       </c>
       <c r="L25" t="n">
         <v>112.1126601249237</v>
       </c>
       <c r="M25" t="n">
-        <v>112.1126601249237</v>
+        <v>41.0962310783657</v>
       </c>
       <c r="N25" t="n">
         <v>112.1126601249237</v>
       </c>
       <c r="O25" t="n">
-        <v>107.5828556754319</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>101.1186240836619</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36686,7 +36686,7 @@
         <v>112.1126601249237</v>
       </c>
       <c r="O27" t="n">
-        <v>46.77903017045198</v>
+        <v>46.77903017045187</v>
       </c>
       <c r="P27" t="n">
         <v>61.58339990340929</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>77.4806606383279</v>
       </c>
       <c r="L28" t="n">
         <v>112.1126601249237</v>
@@ -36762,10 +36762,10 @@
         <v>112.1126601249237</v>
       </c>
       <c r="N28" t="n">
-        <v>6.464231591770021</v>
+        <v>41.0962310783657</v>
       </c>
       <c r="O28" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>101.1186240836619</v>
@@ -36838,7 +36838,7 @@
         <v>66.28237460692793</v>
       </c>
       <c r="M29" t="n">
-        <v>105.7412437481406</v>
+        <v>105.7412437481403</v>
       </c>
       <c r="N29" t="n">
         <v>112.1126601249237</v>
@@ -36914,10 +36914,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>83.8051510039169</v>
+        <v>57.04938717851184</v>
       </c>
       <c r="M30" t="n">
-        <v>85.35689629951874</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="N30" t="n">
         <v>112.1126601249237</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>77.4806606383279</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>112.1126601249237</v>
@@ -36999,10 +36999,10 @@
         <v>112.1126601249237</v>
       </c>
       <c r="N31" t="n">
+        <v>107.5828556754318</v>
+      </c>
+      <c r="O31" t="n">
         <v>112.1126601249237</v>
-      </c>
-      <c r="O31" t="n">
-        <v>30.10219503710393</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>27.52793472257738</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>83.8051510039169</v>
       </c>
       <c r="M33" t="n">
-        <v>57.82896157694119</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="N33" t="n">
-        <v>112.1126601249237</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="O33" t="n">
         <v>101.0627287184343</v>
       </c>
       <c r="P33" t="n">
-        <v>61.58339990340929</v>
+        <v>34.82763607800414</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>77.4806606383279</v>
       </c>
       <c r="L34" t="n">
-        <v>112.1126601249237</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="M34" t="n">
-        <v>112.1126601249237</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="N34" t="n">
-        <v>112.1126601249237</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="O34" t="n">
-        <v>107.5828556754318</v>
+        <v>30.10219503710387</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>83.8051510039169</v>
       </c>
       <c r="M36" t="n">
-        <v>57.82896157694119</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="N36" t="n">
-        <v>112.1126601249237</v>
+        <v>57.82896157694133</v>
       </c>
       <c r="O36" t="n">
         <v>101.0627287184343</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>77.4806606383279</v>
       </c>
       <c r="L37" t="n">
         <v>112.1126601249237</v>
       </c>
       <c r="M37" t="n">
-        <v>112.1126601249237</v>
+        <v>41.09623107836582</v>
       </c>
       <c r="N37" t="n">
         <v>112.1126601249237</v>
       </c>
       <c r="O37" t="n">
-        <v>107.5828556754318</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>101.1186240836619</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>66.28237460692793</v>
       </c>
       <c r="M38" t="n">
-        <v>105.7412437481403</v>
+        <v>105.7412437481404</v>
       </c>
       <c r="N38" t="n">
         <v>112.1126601249237</v>
@@ -37631,7 +37631,7 @@
         <v>112.1126601249237</v>
       </c>
       <c r="N39" t="n">
-        <v>57.82896157694133</v>
+        <v>57.82896157694119</v>
       </c>
       <c r="O39" t="n">
         <v>101.0627287184343</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>77.4806606383279</v>
       </c>
       <c r="L40" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>112.1126601249237</v>
@@ -37713,10 +37713,10 @@
         <v>112.1126601249237</v>
       </c>
       <c r="O40" t="n">
-        <v>6.464231591769993</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="P40" t="n">
-        <v>101.1186240836619</v>
+        <v>30.10219503710393</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37865,16 +37865,16 @@
         <v>83.8051510039169</v>
       </c>
       <c r="M42" t="n">
-        <v>112.1126601249236</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="N42" t="n">
-        <v>112.1126601249236</v>
+        <v>57.82896157694119</v>
       </c>
       <c r="O42" t="n">
         <v>101.0627287184343</v>
       </c>
       <c r="P42" t="n">
-        <v>7.299701355426831</v>
+        <v>61.58339990340929</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>77.4806606383279</v>
       </c>
       <c r="L43" t="n">
-        <v>107.5828556754318</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="M43" t="n">
-        <v>112.1126601249236</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>112.1126601249236</v>
+        <v>41.0962310783657</v>
       </c>
       <c r="O43" t="n">
-        <v>112.1126601249236</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>101.1186240836619</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>23.38234588573897</v>
+        <v>23.38234588573902</v>
       </c>
       <c r="L44" t="n">
         <v>66.28237460692793</v>
@@ -38026,7 +38026,7 @@
         <v>105.7412437481403</v>
       </c>
       <c r="N44" t="n">
-        <v>112.1126601249236</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O44" t="n">
         <v>92.39484495920428</v>
@@ -38099,13 +38099,13 @@
         <v>27.52793472257738</v>
       </c>
       <c r="L45" t="n">
-        <v>83.8051510039169</v>
+        <v>29.52145245593445</v>
       </c>
       <c r="M45" t="n">
-        <v>112.1126601249236</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="N45" t="n">
-        <v>57.82896157694116</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O45" t="n">
         <v>101.0627287184343</v>
@@ -38178,19 +38178,19 @@
         <v>77.4806606383279</v>
       </c>
       <c r="L46" t="n">
-        <v>112.1126601249236</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>112.1126601249236</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="N46" t="n">
-        <v>112.1126601249236</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O46" t="n">
+        <v>112.1126601249237</v>
+      </c>
+      <c r="P46" t="n">
         <v>30.10219503710393</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
